--- a/teaching/traditional_assets/database/data/singapore/singapore_steel.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_steel.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="catalist_a52" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,115 +593,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.171</v>
+        <v>-0.061395</v>
       </c>
       <c r="G2">
-        <v>-0.536231884057971</v>
+        <v>0.03193493150684931</v>
       </c>
       <c r="H2">
-        <v>-0.536231884057971</v>
+        <v>0.03193493150684931</v>
       </c>
       <c r="I2">
-        <v>-0.7991718426501034</v>
+        <v>-0.03022260273972603</v>
       </c>
       <c r="J2">
-        <v>-0.7991718426501034</v>
+        <v>-0.02769802005577885</v>
       </c>
       <c r="K2">
-        <v>-4.24</v>
+        <v>-0.23</v>
       </c>
       <c r="L2">
-        <v>-0.8778467908902692</v>
+        <v>-0.004922945205479452</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.02348484848484849</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>-2.695652173913043</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.02348484848484849</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>-2.695652173913043</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>0.102</v>
+        <v>9.459999999999999</v>
       </c>
       <c r="V2">
-        <v>0.02973760932944606</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="W2">
-        <v>1.508896797153025</v>
+        <v>0.1359615274681301</v>
       </c>
       <c r="X2">
-        <v>0.1535649363888881</v>
+        <v>0.1007118471637662</v>
       </c>
       <c r="Y2">
-        <v>1.355331860764137</v>
+        <v>0.03524968030436393</v>
       </c>
       <c r="Z2">
-        <v>0.4299448103970091</v>
+        <v>0.7035296952174437</v>
       </c>
       <c r="AA2">
-        <v>-0.3435997863628271</v>
+        <v>-0.1080772814407867</v>
       </c>
       <c r="AB2">
-        <v>0.06562351236269431</v>
+        <v>0.05866414864983978</v>
       </c>
       <c r="AC2">
-        <v>-0.4092232987255214</v>
+        <v>-0.1667414300906265</v>
       </c>
       <c r="AD2">
-        <v>8.85</v>
+        <v>35.77</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.85</v>
+        <v>35.77</v>
       </c>
       <c r="AG2">
-        <v>8.747999999999999</v>
+        <v>26.31</v>
       </c>
       <c r="AH2">
-        <v>0.7206840390879479</v>
+        <v>0.575357889657391</v>
       </c>
       <c r="AI2">
-        <v>5.000000000000001</v>
+        <v>0.4236645742034821</v>
       </c>
       <c r="AJ2">
-        <v>0.7183445557562819</v>
+        <v>0.4991462720546386</v>
       </c>
       <c r="AK2">
-        <v>5.244604316546765</v>
+        <v>0.3509403761504601</v>
       </c>
       <c r="AL2">
-        <v>1.21</v>
+        <v>2.07</v>
       </c>
       <c r="AM2">
-        <v>1.21</v>
+        <v>2.042</v>
       </c>
       <c r="AN2">
-        <v>-3.416988416988417</v>
+        <v>17.09847036328872</v>
       </c>
       <c r="AO2">
-        <v>-3.190082644628099</v>
+        <v>-0.6821256038647342</v>
       </c>
       <c r="AP2">
-        <v>-3.377606177606177</v>
+        <v>12.57648183556405</v>
       </c>
       <c r="AQ2">
-        <v>-3.190082644628099</v>
+        <v>-0.691478942213516</v>
       </c>
     </row>
     <row r="3">
@@ -710,124 +715,8973 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>AnnAik Limited (Catalist:A52)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.00221</v>
+      </c>
+      <c r="G3">
+        <v>0.0433673469387755</v>
+      </c>
+      <c r="H3">
+        <v>0.0433673469387755</v>
+      </c>
+      <c r="I3">
+        <v>0.006836734693877551</v>
+      </c>
+      <c r="J3">
+        <v>0.005694549676157888</v>
+      </c>
+      <c r="K3">
+        <v>1.4</v>
+      </c>
+      <c r="L3">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="M3">
+        <v>0.62</v>
+      </c>
+      <c r="N3">
+        <v>0.04189189189189189</v>
+      </c>
+      <c r="O3">
+        <v>0.4428571428571429</v>
+      </c>
+      <c r="P3">
+        <v>0.62</v>
+      </c>
+      <c r="Q3">
+        <v>0.04189189189189189</v>
+      </c>
+      <c r="R3">
+        <v>0.4428571428571429</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="V3">
+        <v>0.5655405405405405</v>
+      </c>
+      <c r="W3">
+        <v>0.03431372549019608</v>
+      </c>
+      <c r="X3">
+        <v>0.1185516861485397</v>
+      </c>
+      <c r="Y3">
+        <v>-0.08423796065834363</v>
+      </c>
+      <c r="Z3">
+        <v>0.6670069763484772</v>
+      </c>
+      <c r="AA3">
+        <v>0.003798304361160272</v>
+      </c>
+      <c r="AB3">
+        <v>0.05630812026695117</v>
+      </c>
+      <c r="AC3">
+        <v>-0.0525098159057909</v>
+      </c>
+      <c r="AD3">
+        <v>26.4</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>26.4</v>
+      </c>
+      <c r="AG3">
+        <v>18.03</v>
+      </c>
+      <c r="AH3">
+        <v>0.6407766990291262</v>
+      </c>
+      <c r="AI3">
+        <v>0.3402061855670103</v>
+      </c>
+      <c r="AJ3">
+        <v>0.5491928114529394</v>
+      </c>
+      <c r="AK3">
+        <v>0.2604362270691897</v>
+      </c>
+      <c r="AL3">
+        <v>1.05</v>
+      </c>
+      <c r="AM3">
+        <v>1.023</v>
+      </c>
+      <c r="AN3">
+        <v>11.47826086956522</v>
+      </c>
+      <c r="AO3">
+        <v>0.2552380952380953</v>
+      </c>
+      <c r="AP3">
+        <v>7.83913043478261</v>
+      </c>
+      <c r="AQ3">
+        <v>0.2619745845552297</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>AGV Group Limited (Catalist:1A4)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Steel</t>
         </is>
       </c>
+      <c r="D4">
+        <v>-0.125</v>
+      </c>
+      <c r="G4">
+        <v>-0.02765957446808511</v>
+      </c>
+      <c r="H4">
+        <v>-0.02765957446808511</v>
+      </c>
+      <c r="I4">
+        <v>-0.223404255319149</v>
+      </c>
+      <c r="J4">
+        <v>-0.223404255319149</v>
+      </c>
+      <c r="K4">
+        <v>-1.63</v>
+      </c>
+      <c r="L4">
+        <v>-0.2167553191489362</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1.09</v>
+      </c>
+      <c r="V4">
+        <v>0.09396551724137932</v>
+      </c>
+      <c r="W4">
+        <v>0.2376093294460641</v>
+      </c>
+      <c r="X4">
+        <v>0.08287200817899262</v>
+      </c>
+      <c r="Y4">
+        <v>0.1547373212670715</v>
+      </c>
+      <c r="Z4">
+        <v>0.9845509295627128</v>
+      </c>
+      <c r="AA4">
+        <v>-0.2199528672427337</v>
+      </c>
+      <c r="AB4">
+        <v>0.0610201770327284</v>
+      </c>
+      <c r="AC4">
+        <v>-0.2809730442754621</v>
+      </c>
+      <c r="AD4">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.446828803051979</v>
+      </c>
+      <c r="AI4">
+        <v>1.371888726207906</v>
+      </c>
+      <c r="AJ4">
+        <v>0.4164989939637827</v>
+      </c>
+      <c r="AK4">
+        <v>1.442508710801394</v>
+      </c>
+      <c r="AL4">
+        <v>1.02</v>
+      </c>
+      <c r="AM4">
+        <v>1.019</v>
+      </c>
+      <c r="AN4">
+        <v>-45.04807692307692</v>
+      </c>
+      <c r="AO4">
+        <v>-1.647058823529412</v>
+      </c>
+      <c r="AP4">
+        <v>-39.80769230769231</v>
+      </c>
+      <c r="AQ4">
+        <v>-1.648675171736997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AnnAik Limited (Catalist:A52)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Catalist:A52</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.640776699029126</v>
+      </c>
+      <c r="F2">
+        <v>0.02</v>
+      </c>
+      <c r="G2">
+        <v>14.8</v>
+      </c>
+      <c r="H2">
+        <v>42.6390739154459</v>
+      </c>
+      <c r="I2">
+        <v>32.83</v>
+      </c>
+      <c r="J2">
+        <v>35.0930739154459</v>
+      </c>
+      <c r="K2">
+        <v>26.4</v>
+      </c>
+      <c r="L2">
+        <v>0.824</v>
+      </c>
+      <c r="M2">
+        <v>0.0563081202669512</v>
+      </c>
+      <c r="N2">
+        <v>0.0532766716384668</v>
+      </c>
+      <c r="O2">
+        <v>0.021414</v>
+      </c>
+      <c r="P2">
+        <v>0.013446</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.11855168614854</v>
+      </c>
+      <c r="T2">
+        <v>0.0540895424882314</v>
+      </c>
+      <c r="U2">
+        <v>2.31465436755381</v>
+      </c>
+      <c r="V2">
+        <v>0.948930984920158</v>
+      </c>
+      <c r="W2">
+        <v>20.07671101522233</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>14.8</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0258</v>
+      </c>
+      <c r="AD2">
+        <v>0.17</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>2.3</v>
+      </c>
+      <c r="AH2">
+        <v>2.032</v>
+      </c>
+      <c r="AI2">
+        <v>2.379</v>
+      </c>
+      <c r="AJ2">
+        <v>26.4</v>
+      </c>
+      <c r="AK2">
+        <v>26.4</v>
+      </c>
+      <c r="AL2">
+        <v>1.05</v>
+      </c>
+      <c r="AM2">
+        <v>26.4</v>
+      </c>
+      <c r="AN2">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05334349953689224</v>
+      </c>
+      <c r="C2">
+        <v>43.40982663937295</v>
+      </c>
+      <c r="D2">
+        <v>35.03982663937295</v>
+      </c>
+      <c r="E2">
+        <v>-26.4</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H2">
+        <v>14.8</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2.3</v>
+      </c>
+      <c r="K2">
+        <v>2.032</v>
+      </c>
+      <c r="L2">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="O2">
+        <v>0.04555999999999997</v>
+      </c>
+      <c r="P2">
+        <v>0.2224399999999998</v>
+      </c>
+      <c r="Q2">
+        <v>2.25444</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05334349953689224</v>
+      </c>
+      <c r="T2">
+        <v>0.9331249901883949</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.17</v>
+      </c>
+      <c r="W2">
+        <v>0.013446</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05331008558767953</v>
+      </c>
+      <c r="C3">
+        <v>43.02443006384068</v>
+      </c>
       <c r="D3">
-        <v>-0.171</v>
+        <v>35.06643006384068</v>
+      </c>
+      <c r="E3">
+        <v>-25.988</v>
+      </c>
+      <c r="F3">
+        <v>0.412</v>
       </c>
       <c r="G3">
-        <v>-0.536231884057971</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H3">
-        <v>-0.536231884057971</v>
+        <v>14.8</v>
       </c>
       <c r="I3">
-        <v>-0.7991718426501034</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.7991718426501034</v>
+        <v>2.3</v>
       </c>
       <c r="K3">
-        <v>-4.24</v>
+        <v>2.032</v>
       </c>
       <c r="L3">
-        <v>-0.8778467908902692</v>
+        <v>0.2679999999999998</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.0066744</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.2613255999999998</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.04442535199999997</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.2169002479999998</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>2.248900248</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.05371275311886821</v>
+      </c>
+      <c r="T3">
+        <v>0.9409481592980552</v>
       </c>
       <c r="U3">
-        <v>0.102</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
-        <v>0.02973760932944606</v>
+        <v>0.17</v>
       </c>
       <c r="W3">
-        <v>1.508896797153025</v>
-      </c>
-      <c r="X3">
-        <v>0.1535649363888881</v>
+        <v>0.013446</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y3">
-        <v>1.355331860764137</v>
+        <v>40.15342203044464</v>
       </c>
       <c r="Z3">
-        <v>0.4299448103970091</v>
-      </c>
-      <c r="AA3">
-        <v>-0.3435997863628271</v>
-      </c>
-      <c r="AB3">
-        <v>0.06562351236269431</v>
-      </c>
-      <c r="AC3">
-        <v>-0.4092232987255214</v>
-      </c>
-      <c r="AD3">
-        <v>8.85</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>8.85</v>
-      </c>
-      <c r="AG3">
-        <v>8.747999999999999</v>
-      </c>
-      <c r="AH3">
-        <v>0.7206840390879479</v>
-      </c>
-      <c r="AI3">
-        <v>5.000000000000001</v>
-      </c>
-      <c r="AJ3">
-        <v>0.7183445557562819</v>
-      </c>
-      <c r="AK3">
-        <v>5.244604316546765</v>
-      </c>
-      <c r="AL3">
-        <v>1.21</v>
-      </c>
-      <c r="AM3">
-        <v>1.21</v>
-      </c>
-      <c r="AN3">
-        <v>-3.416988416988417</v>
-      </c>
-      <c r="AO3">
-        <v>-3.190082644628099</v>
-      </c>
-      <c r="AP3">
-        <v>-3.377606177606177</v>
-      </c>
-      <c r="AQ3">
-        <v>-3.190082644628099</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.0532766716384668</v>
+      </c>
+      <c r="C4">
+        <v>42.63907391544586</v>
+      </c>
+      <c r="D4">
+        <v>35.09307391544586</v>
+      </c>
+      <c r="E4">
+        <v>-25.576</v>
+      </c>
+      <c r="F4">
+        <v>0.8240000000000001</v>
+      </c>
+      <c r="G4">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H4">
+        <v>14.8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2.3</v>
+      </c>
+      <c r="K4">
+        <v>2.032</v>
+      </c>
+      <c r="L4">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.0133488</v>
+      </c>
+      <c r="N4">
+        <v>0.2546511999999998</v>
+      </c>
+      <c r="O4">
+        <v>0.04329070399999997</v>
+      </c>
+      <c r="P4">
+        <v>0.2113604959999998</v>
+      </c>
+      <c r="Q4">
+        <v>2.243360496</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05408954248823143</v>
+      </c>
+      <c r="T4">
+        <v>0.9489309849201576</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.17</v>
+      </c>
+      <c r="W4">
+        <v>0.013446</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>20.07671101522233</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05328309768925409</v>
+      </c>
+      <c r="C5">
+        <v>42.22194672143019</v>
+      </c>
+      <c r="D5">
+        <v>35.08794672143019</v>
+      </c>
+      <c r="E5">
+        <v>-25.164</v>
+      </c>
+      <c r="F5">
+        <v>1.236</v>
+      </c>
+      <c r="G5">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H5">
+        <v>14.8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2.3</v>
+      </c>
+      <c r="K5">
+        <v>2.032</v>
+      </c>
+      <c r="L5">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M5">
+        <v>0.0220008</v>
+      </c>
+      <c r="N5">
+        <v>0.2459991999999998</v>
+      </c>
+      <c r="O5">
+        <v>0.04181986399999997</v>
+      </c>
+      <c r="P5">
+        <v>0.2041793359999998</v>
+      </c>
+      <c r="Q5">
+        <v>2.236179336</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05447410071057122</v>
+      </c>
+      <c r="T5">
+        <v>0.9570784048849836</v>
+      </c>
+      <c r="U5">
+        <v>0.0178</v>
+      </c>
+      <c r="V5">
+        <v>0.17</v>
+      </c>
+      <c r="W5">
+        <v>0.014774</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>12.18137522271916</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05333600374004138</v>
+      </c>
+      <c r="C6">
+        <v>41.76779110934912</v>
+      </c>
+      <c r="D6">
+        <v>35.04579110934912</v>
+      </c>
+      <c r="E6">
+        <v>-24.752</v>
+      </c>
+      <c r="F6">
+        <v>1.648</v>
+      </c>
+      <c r="G6">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H6">
+        <v>14.8</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2.3</v>
+      </c>
+      <c r="K6">
+        <v>2.032</v>
+      </c>
+      <c r="L6">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M6">
+        <v>0.03296</v>
+      </c>
+      <c r="N6">
+        <v>0.2350399999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.03995679999999997</v>
+      </c>
+      <c r="P6">
+        <v>0.1950831999999998</v>
+      </c>
+      <c r="Q6">
+        <v>2.2270832</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.0548666705625431</v>
+      </c>
+      <c r="T6">
+        <v>0.9653955627657437</v>
+      </c>
+      <c r="U6">
+        <v>0.02</v>
+      </c>
+      <c r="V6">
+        <v>0.17</v>
+      </c>
+      <c r="W6">
+        <v>0.0166</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>8.131067961165044</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05344202979082865</v>
+      </c>
+      <c r="C7">
+        <v>41.27161358408244</v>
+      </c>
+      <c r="D7">
+        <v>34.96161358408244</v>
+      </c>
+      <c r="E7">
+        <v>-24.34</v>
+      </c>
+      <c r="F7">
+        <v>2.06</v>
+      </c>
+      <c r="G7">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H7">
+        <v>14.8</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2.3</v>
+      </c>
+      <c r="K7">
+        <v>2.032</v>
+      </c>
+      <c r="L7">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.046556</v>
+      </c>
+      <c r="N7">
+        <v>0.2214439999999998</v>
+      </c>
+      <c r="O7">
+        <v>0.03764547999999997</v>
+      </c>
+      <c r="P7">
+        <v>0.1837985199999999</v>
+      </c>
+      <c r="Q7">
+        <v>2.21579852</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05526750504297753</v>
+      </c>
+      <c r="T7">
+        <v>0.9738878187071511</v>
+      </c>
+      <c r="U7">
+        <v>0.0226</v>
+      </c>
+      <c r="V7">
+        <v>0.17</v>
+      </c>
+      <c r="W7">
+        <v>0.018758</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>5.756508291090296</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05346173584161594</v>
+      </c>
+      <c r="C8">
+        <v>40.84401285372699</v>
+      </c>
+      <c r="D8">
+        <v>34.946012853727</v>
+      </c>
+      <c r="E8">
+        <v>-23.928</v>
+      </c>
+      <c r="F8">
+        <v>2.472</v>
+      </c>
+      <c r="G8">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H8">
+        <v>14.8</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2.3</v>
+      </c>
+      <c r="K8">
+        <v>2.032</v>
+      </c>
+      <c r="L8">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.0558672</v>
+      </c>
+      <c r="N8">
+        <v>0.2121327999999998</v>
+      </c>
+      <c r="O8">
+        <v>0.03606257599999996</v>
+      </c>
+      <c r="P8">
+        <v>0.1760702239999998</v>
+      </c>
+      <c r="Q8">
+        <v>2.208070224</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05567686791661271</v>
+      </c>
+      <c r="T8">
+        <v>0.9825607609451844</v>
+      </c>
+      <c r="U8">
+        <v>0.0226</v>
+      </c>
+      <c r="V8">
+        <v>0.17</v>
+      </c>
+      <c r="W8">
+        <v>0.018758</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>4.797090242575246</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.058769844811921</v>
+      </c>
+      <c r="C9">
+        <v>36.68230947360716</v>
+      </c>
+      <c r="D9">
+        <v>31.19630947360716</v>
+      </c>
+      <c r="E9">
+        <v>-23.516</v>
+      </c>
+      <c r="F9">
+        <v>2.884</v>
+      </c>
+      <c r="G9">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H9">
+        <v>14.8</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2.3</v>
+      </c>
+      <c r="K9">
+        <v>2.032</v>
+      </c>
+      <c r="L9">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.314356</v>
+      </c>
+      <c r="N9">
+        <v>-0.04635600000000023</v>
+      </c>
+      <c r="O9">
+        <v>-0.00788052000000004</v>
+      </c>
+      <c r="P9">
+        <v>-0.03847548000000019</v>
+      </c>
+      <c r="Q9">
+        <v>1.99352452</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05617813984369834</v>
+      </c>
+      <c r="T9">
+        <v>0.993180928891914</v>
+      </c>
+      <c r="U9">
+        <v>0.109</v>
+      </c>
+      <c r="V9">
+        <v>0.144931224471618</v>
+      </c>
+      <c r="W9">
+        <v>0.09320249653259363</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.8525366145389297</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06236228190069623</v>
+      </c>
+      <c r="C10">
+        <v>34.15824841683557</v>
+      </c>
+      <c r="D10">
+        <v>29.08424841683557</v>
+      </c>
+      <c r="E10">
+        <v>-23.104</v>
+      </c>
+      <c r="F10">
+        <v>3.296</v>
+      </c>
+      <c r="G10">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H10">
+        <v>14.8</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2.3</v>
+      </c>
+      <c r="K10">
+        <v>2.032</v>
+      </c>
+      <c r="L10">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.4620992</v>
+      </c>
+      <c r="N10">
+        <v>-0.1940992000000002</v>
+      </c>
+      <c r="O10">
+        <v>-0.03299686400000004</v>
+      </c>
+      <c r="P10">
+        <v>-0.1611023360000002</v>
+      </c>
+      <c r="Q10">
+        <v>1.870897664</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05679576863414638</v>
+      </c>
+      <c r="T10">
+        <v>1.006266284621746</v>
+      </c>
+      <c r="U10">
+        <v>0.1402</v>
+      </c>
+      <c r="V10">
+        <v>0.09859354874451194</v>
+      </c>
+      <c r="W10">
+        <v>0.1263771844660194</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.5799620514383055</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06367128190069625</v>
+      </c>
+      <c r="C11">
+        <v>33.04603904441041</v>
+      </c>
+      <c r="D11">
+        <v>28.3840390444104</v>
+      </c>
+      <c r="E11">
+        <v>-22.692</v>
+      </c>
+      <c r="F11">
+        <v>3.708</v>
+      </c>
+      <c r="G11">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H11">
+        <v>14.8</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2.3</v>
+      </c>
+      <c r="K11">
+        <v>2.032</v>
+      </c>
+      <c r="L11">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M11">
+        <v>0.5198616</v>
+      </c>
+      <c r="N11">
+        <v>-0.2518616000000002</v>
+      </c>
+      <c r="O11">
+        <v>-0.04281647200000004</v>
+      </c>
+      <c r="P11">
+        <v>-0.2090451280000002</v>
+      </c>
+      <c r="Q11">
+        <v>1.822954872</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05731770015759856</v>
+      </c>
+      <c r="T11">
+        <v>1.017324155881325</v>
+      </c>
+      <c r="U11">
+        <v>0.1402</v>
+      </c>
+      <c r="V11">
+        <v>0.08763870999512172</v>
+      </c>
+      <c r="W11">
+        <v>0.1279130528586839</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.515521823500716</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06941254411689805</v>
+      </c>
+      <c r="C12">
+        <v>29.92312049483165</v>
+      </c>
+      <c r="D12">
+        <v>25.67312049483165</v>
+      </c>
+      <c r="E12">
+        <v>-22.28</v>
+      </c>
+      <c r="F12">
+        <v>4.12</v>
+      </c>
+      <c r="G12">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H12">
+        <v>14.8</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2.3</v>
+      </c>
+      <c r="K12">
+        <v>2.032</v>
+      </c>
+      <c r="L12">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M12">
+        <v>0.7568440000000001</v>
+      </c>
+      <c r="N12">
+        <v>-0.4888440000000003</v>
+      </c>
+      <c r="O12">
+        <v>-0.08310348000000005</v>
+      </c>
+      <c r="P12">
+        <v>-0.4057405200000002</v>
+      </c>
+      <c r="Q12">
+        <v>1.62625948</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05794263262179611</v>
+      </c>
+      <c r="T12">
+        <v>1.030564250461782</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0.06019734582027467</v>
+      </c>
+      <c r="W12">
+        <v>0.1726417475728155</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.3541020342369098</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07115654411689806</v>
+      </c>
+      <c r="C13">
+        <v>28.78728564789335</v>
+      </c>
+      <c r="D13">
+        <v>24.94928564789335</v>
+      </c>
+      <c r="E13">
+        <v>-21.868</v>
+      </c>
+      <c r="F13">
+        <v>4.532</v>
+      </c>
+      <c r="G13">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H13">
+        <v>14.8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2.3</v>
+      </c>
+      <c r="K13">
+        <v>2.032</v>
+      </c>
+      <c r="L13">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M13">
+        <v>0.8325284000000001</v>
+      </c>
+      <c r="N13">
+        <v>-0.5645284000000003</v>
+      </c>
+      <c r="O13">
+        <v>-0.09596982800000005</v>
+      </c>
+      <c r="P13">
+        <v>-0.4685585720000002</v>
+      </c>
+      <c r="Q13">
+        <v>1.563441428</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05848917905574888</v>
+      </c>
+      <c r="T13">
+        <v>1.042143624062476</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0.05472485983661334</v>
+      </c>
+      <c r="W13">
+        <v>0.1736470432480141</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.3219109402153726</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07290054411689804</v>
+      </c>
+      <c r="C14">
+        <v>27.69114756740852</v>
+      </c>
+      <c r="D14">
+        <v>24.26514756740852</v>
+      </c>
+      <c r="E14">
+        <v>-21.456</v>
+      </c>
+      <c r="F14">
+        <v>4.944</v>
+      </c>
+      <c r="G14">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H14">
+        <v>14.8</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2.3</v>
+      </c>
+      <c r="K14">
+        <v>2.032</v>
+      </c>
+      <c r="L14">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M14">
+        <v>0.9082128</v>
+      </c>
+      <c r="N14">
+        <v>-0.6402128000000002</v>
+      </c>
+      <c r="O14">
+        <v>-0.108836176</v>
+      </c>
+      <c r="P14">
+        <v>-0.5313766240000002</v>
+      </c>
+      <c r="Q14">
+        <v>1.500623376</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05904814699956419</v>
+      </c>
+      <c r="T14">
+        <v>1.053986165245004</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0.0501644548502289</v>
+      </c>
+      <c r="W14">
+        <v>0.174484789644013</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.2950850285307582</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07464454411689805</v>
+      </c>
+      <c r="C15">
+        <v>26.63152781690793</v>
+      </c>
+      <c r="D15">
+        <v>23.61752781690793</v>
+      </c>
+      <c r="E15">
+        <v>-21.044</v>
+      </c>
+      <c r="F15">
+        <v>5.356000000000001</v>
+      </c>
+      <c r="G15">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H15">
+        <v>14.8</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2.3</v>
+      </c>
+      <c r="K15">
+        <v>2.032</v>
+      </c>
+      <c r="L15">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M15">
+        <v>0.9838972000000001</v>
+      </c>
+      <c r="N15">
+        <v>-0.7158972000000003</v>
+      </c>
+      <c r="O15">
+        <v>-0.1217025240000001</v>
+      </c>
+      <c r="P15">
+        <v>-0.5941946760000003</v>
+      </c>
+      <c r="Q15">
+        <v>1.437805324</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05961996478116839</v>
+      </c>
+      <c r="T15">
+        <v>1.066100948753568</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0.04630565063098051</v>
+      </c>
+      <c r="W15">
+        <v>0.1751936519790889</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.2723861801822383</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07638854411689805</v>
+      </c>
+      <c r="C16">
+        <v>25.60557846005621</v>
+      </c>
+      <c r="D16">
+        <v>23.00357846005621</v>
+      </c>
+      <c r="E16">
+        <v>-20.632</v>
+      </c>
+      <c r="F16">
+        <v>5.768000000000001</v>
+      </c>
+      <c r="G16">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H16">
+        <v>14.8</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2.3</v>
+      </c>
+      <c r="K16">
+        <v>2.032</v>
+      </c>
+      <c r="L16">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M16">
+        <v>1.0595816</v>
+      </c>
+      <c r="N16">
+        <v>-0.7915816000000004</v>
+      </c>
+      <c r="O16">
+        <v>-0.1345688720000001</v>
+      </c>
+      <c r="P16">
+        <v>-0.6570127280000003</v>
+      </c>
+      <c r="Q16">
+        <v>1.374987272</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06020508065071685</v>
+      </c>
+      <c r="T16">
+        <v>1.078497471413493</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.04299810415733905</v>
+      </c>
+      <c r="W16">
+        <v>0.1758012482662968</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.2529300244549355</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07813254411689805</v>
+      </c>
+      <c r="C17">
+        <v>24.61074019148655</v>
+      </c>
+      <c r="D17">
+        <v>22.42074019148655</v>
+      </c>
+      <c r="E17">
+        <v>-20.22</v>
+      </c>
+      <c r="F17">
+        <v>6.180000000000001</v>
+      </c>
+      <c r="G17">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H17">
+        <v>14.8</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2.3</v>
+      </c>
+      <c r="K17">
+        <v>2.032</v>
+      </c>
+      <c r="L17">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M17">
+        <v>1.135266</v>
+      </c>
+      <c r="N17">
+        <v>-0.8672660000000003</v>
+      </c>
+      <c r="O17">
+        <v>-0.1474352200000001</v>
+      </c>
+      <c r="P17">
+        <v>-0.7198307800000002</v>
+      </c>
+      <c r="Q17">
+        <v>1.31216922</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06080396395248999</v>
+      </c>
+      <c r="T17">
+        <v>1.091185676959534</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.04013156388018312</v>
+      </c>
+      <c r="W17">
+        <v>0.1763278317152104</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.2360680228246066</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07987654411689804</v>
+      </c>
+      <c r="C18">
+        <v>23.64470667534857</v>
+      </c>
+      <c r="D18">
+        <v>21.86670667534856</v>
+      </c>
+      <c r="E18">
+        <v>-19.808</v>
+      </c>
+      <c r="F18">
+        <v>6.592000000000001</v>
+      </c>
+      <c r="G18">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H18">
+        <v>14.8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2.3</v>
+      </c>
+      <c r="K18">
+        <v>2.032</v>
+      </c>
+      <c r="L18">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M18">
+        <v>1.2109504</v>
+      </c>
+      <c r="N18">
+        <v>-0.9429504000000004</v>
+      </c>
+      <c r="O18">
+        <v>-0.1603015680000001</v>
+      </c>
+      <c r="P18">
+        <v>-0.7826488320000003</v>
+      </c>
+      <c r="Q18">
+        <v>1.249351168</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06141710638049583</v>
+      </c>
+      <c r="T18">
+        <v>1.104175982637624</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.03762334113767167</v>
+      </c>
+      <c r="W18">
+        <v>0.1767885922330097</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.2213137713980686</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.08162054411689805</v>
+      </c>
+      <c r="C19">
+        <v>22.70539404368244</v>
+      </c>
+      <c r="D19">
+        <v>21.33939404368244</v>
+      </c>
+      <c r="E19">
+        <v>-19.396</v>
+      </c>
+      <c r="F19">
+        <v>7.004000000000001</v>
+      </c>
+      <c r="G19">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H19">
+        <v>14.8</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2.3</v>
+      </c>
+      <c r="K19">
+        <v>2.032</v>
+      </c>
+      <c r="L19">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M19">
+        <v>1.2866348</v>
+      </c>
+      <c r="N19">
+        <v>-1.018634800000001</v>
+      </c>
+      <c r="O19">
+        <v>-0.1731679160000001</v>
+      </c>
+      <c r="P19">
+        <v>-0.8454668840000004</v>
+      </c>
+      <c r="Q19">
+        <v>1.186533116</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06204502332483915</v>
+      </c>
+      <c r="T19">
+        <v>1.117479307729643</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.03541020342369098</v>
+      </c>
+      <c r="W19">
+        <v>0.177195145631068</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.2082953142570058</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08336454411689805</v>
+      </c>
+      <c r="C20">
+        <v>21.79091470412904</v>
+      </c>
+      <c r="D20">
+        <v>20.83691470412904</v>
+      </c>
+      <c r="E20">
+        <v>-18.984</v>
+      </c>
+      <c r="F20">
+        <v>7.416</v>
+      </c>
+      <c r="G20">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H20">
+        <v>14.8</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2.3</v>
+      </c>
+      <c r="K20">
+        <v>2.032</v>
+      </c>
+      <c r="L20">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M20">
+        <v>1.3623192</v>
+      </c>
+      <c r="N20">
+        <v>-1.0943192</v>
+      </c>
+      <c r="O20">
+        <v>-0.1860342640000001</v>
+      </c>
+      <c r="P20">
+        <v>-0.9082849360000003</v>
+      </c>
+      <c r="Q20">
+        <v>1.123715064</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06268825531660548</v>
+      </c>
+      <c r="T20">
+        <v>1.13110710416537</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.03344296990015259</v>
+      </c>
+      <c r="W20">
+        <v>0.177556526429342</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.1967233523538388</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08510854411689805</v>
+      </c>
+      <c r="C21">
+        <v>20.89955476301258</v>
+      </c>
+      <c r="D21">
+        <v>20.35755476301258</v>
+      </c>
+      <c r="E21">
+        <v>-18.572</v>
+      </c>
+      <c r="F21">
+        <v>7.828</v>
+      </c>
+      <c r="G21">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H21">
+        <v>14.8</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2.3</v>
+      </c>
+      <c r="K21">
+        <v>2.032</v>
+      </c>
+      <c r="L21">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M21">
+        <v>1.4380036</v>
+      </c>
+      <c r="N21">
+        <v>-1.1700036</v>
+      </c>
+      <c r="O21">
+        <v>-0.1989006120000001</v>
+      </c>
+      <c r="P21">
+        <v>-0.9711029880000002</v>
+      </c>
+      <c r="Q21">
+        <v>1.060897012</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06334736957977345</v>
+      </c>
+      <c r="T21">
+        <v>1.14507138940198</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.03168281358961825</v>
+      </c>
+      <c r="W21">
+        <v>0.1778798671435871</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.1863694917036367</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08685254411689805</v>
+      </c>
+      <c r="C22">
+        <v>20.02975449467866</v>
+      </c>
+      <c r="D22">
+        <v>19.89975449467866</v>
+      </c>
+      <c r="E22">
+        <v>-18.16</v>
+      </c>
+      <c r="F22">
+        <v>8.24</v>
+      </c>
+      <c r="G22">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H22">
+        <v>14.8</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2.3</v>
+      </c>
+      <c r="K22">
+        <v>2.032</v>
+      </c>
+      <c r="L22">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M22">
+        <v>1.513688</v>
+      </c>
+      <c r="N22">
+        <v>-1.245688</v>
+      </c>
+      <c r="O22">
+        <v>-0.2117669600000001</v>
+      </c>
+      <c r="P22">
+        <v>-1.03392104</v>
+      </c>
+      <c r="Q22">
+        <v>0.9980789599999997</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06402296169952063</v>
+      </c>
+      <c r="T22">
+        <v>1.159384781769505</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.03009867291013734</v>
+      </c>
+      <c r="W22">
+        <v>0.1781708737864078</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.1770510171184549</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.08859654411689805</v>
+      </c>
+      <c r="C23">
+        <v>19.18009138810547</v>
+      </c>
+      <c r="D23">
+        <v>19.46209138810547</v>
+      </c>
+      <c r="E23">
+        <v>-17.748</v>
+      </c>
+      <c r="F23">
+        <v>8.652000000000001</v>
+      </c>
+      <c r="G23">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H23">
+        <v>14.8</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2.3</v>
+      </c>
+      <c r="K23">
+        <v>2.032</v>
+      </c>
+      <c r="L23">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M23">
+        <v>1.5893724</v>
+      </c>
+      <c r="N23">
+        <v>-1.3213724</v>
+      </c>
+      <c r="O23">
+        <v>-0.2246333080000001</v>
+      </c>
+      <c r="P23">
+        <v>-1.096739092</v>
+      </c>
+      <c r="Q23">
+        <v>0.9352609079999996</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06471565741723607</v>
+      </c>
+      <c r="T23">
+        <v>1.174060538500764</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.02866540277155936</v>
+      </c>
+      <c r="W23">
+        <v>0.1784341655108646</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.1686200163032904</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09034054411689807</v>
+      </c>
+      <c r="C24">
+        <v>18.34926538254588</v>
+      </c>
+      <c r="D24">
+        <v>19.04326538254588</v>
+      </c>
+      <c r="E24">
+        <v>-17.336</v>
+      </c>
+      <c r="F24">
+        <v>9.064</v>
+      </c>
+      <c r="G24">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H24">
+        <v>14.8</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2.3</v>
+      </c>
+      <c r="K24">
+        <v>2.032</v>
+      </c>
+      <c r="L24">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M24">
+        <v>1.6650568</v>
+      </c>
+      <c r="N24">
+        <v>-1.3970568</v>
+      </c>
+      <c r="O24">
+        <v>-0.2374996560000001</v>
+      </c>
+      <c r="P24">
+        <v>-1.159557144</v>
+      </c>
+      <c r="Q24">
+        <v>0.8724428559999997</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.0654261145636109</v>
+      </c>
+      <c r="T24">
+        <v>1.189112596686672</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.02736242991830667</v>
+      </c>
+      <c r="W24">
+        <v>0.1786735216240071</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.1609554701076863</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09208454411689806</v>
+      </c>
+      <c r="C25">
+        <v>17.53608596939041</v>
+      </c>
+      <c r="D25">
+        <v>18.64208596939041</v>
+      </c>
+      <c r="E25">
+        <v>-16.924</v>
+      </c>
+      <c r="F25">
+        <v>9.476000000000001</v>
+      </c>
+      <c r="G25">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H25">
+        <v>14.8</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2.3</v>
+      </c>
+      <c r="K25">
+        <v>2.032</v>
+      </c>
+      <c r="L25">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M25">
+        <v>1.7407412</v>
+      </c>
+      <c r="N25">
+        <v>-1.4727412</v>
+      </c>
+      <c r="O25">
+        <v>-0.2503660040000001</v>
+      </c>
+      <c r="P25">
+        <v>-1.222375196</v>
+      </c>
+      <c r="Q25">
+        <v>0.8096248039999998</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06615502514235909</v>
+      </c>
+      <c r="T25">
+        <v>1.204555617422862</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.02617275905229334</v>
+      </c>
+      <c r="W25">
+        <v>0.1788920641620937</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.1539574061899608</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09382854411689806</v>
+      </c>
+      <c r="C26">
+        <v>16.73946089072285</v>
+      </c>
+      <c r="D26">
+        <v>18.25746089072285</v>
+      </c>
+      <c r="E26">
+        <v>-16.512</v>
+      </c>
+      <c r="F26">
+        <v>9.888</v>
+      </c>
+      <c r="G26">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H26">
+        <v>14.8</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>2.3</v>
+      </c>
+      <c r="K26">
+        <v>2.032</v>
+      </c>
+      <c r="L26">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M26">
+        <v>1.8164256</v>
+      </c>
+      <c r="N26">
+        <v>-1.5484256</v>
+      </c>
+      <c r="O26">
+        <v>-0.2632323520000001</v>
+      </c>
+      <c r="P26">
+        <v>-1.285193248</v>
+      </c>
+      <c r="Q26">
+        <v>0.7468067519999999</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06690311757844276</v>
+      </c>
+      <c r="T26">
+        <v>1.220405033441584</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.02508222742511445</v>
+      </c>
+      <c r="W26">
+        <v>0.1790923948220065</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.1475425142653791</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09557254411689806</v>
+      </c>
+      <c r="C27">
+        <v>15.95838620862843</v>
+      </c>
+      <c r="D27">
+        <v>17.88838620862843</v>
+      </c>
+      <c r="E27">
+        <v>-16.1</v>
+      </c>
+      <c r="F27">
+        <v>10.3</v>
+      </c>
+      <c r="G27">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H27">
+        <v>14.8</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2.3</v>
+      </c>
+      <c r="K27">
+        <v>2.032</v>
+      </c>
+      <c r="L27">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M27">
+        <v>1.89211</v>
+      </c>
+      <c r="N27">
+        <v>-1.62411</v>
+      </c>
+      <c r="O27">
+        <v>-0.2760987000000001</v>
+      </c>
+      <c r="P27">
+        <v>-1.3480113</v>
+      </c>
+      <c r="Q27">
+        <v>0.6839886999999998</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06767115914615533</v>
+      </c>
+      <c r="T27">
+        <v>1.236677100554138</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.02407893832810987</v>
+      </c>
+      <c r="W27">
+        <v>0.1792766990291262</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.1416408136947639</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09731654411689805</v>
+      </c>
+      <c r="C28">
+        <v>15.19193755512968</v>
+      </c>
+      <c r="D28">
+        <v>17.53393755512968</v>
+      </c>
+      <c r="E28">
+        <v>-15.688</v>
+      </c>
+      <c r="F28">
+        <v>10.712</v>
+      </c>
+      <c r="G28">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H28">
+        <v>14.8</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2.3</v>
+      </c>
+      <c r="K28">
+        <v>2.032</v>
+      </c>
+      <c r="L28">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M28">
+        <v>1.9677944</v>
+      </c>
+      <c r="N28">
+        <v>-1.6997944</v>
+      </c>
+      <c r="O28">
+        <v>-0.2889650480000001</v>
+      </c>
+      <c r="P28">
+        <v>-1.410829352</v>
+      </c>
+      <c r="Q28">
+        <v>0.6211706479999997</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.06845995859407634</v>
+      </c>
+      <c r="T28">
+        <v>1.253388953264329</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.02315282531549026</v>
+      </c>
+      <c r="W28">
+        <v>0.1794468259895445</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.1361930900911191</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.09906054411689805</v>
+      </c>
+      <c r="C29">
+        <v>14.43926240217693</v>
+      </c>
+      <c r="D29">
+        <v>17.19326240217693</v>
+      </c>
+      <c r="E29">
+        <v>-15.276</v>
+      </c>
+      <c r="F29">
+        <v>11.124</v>
+      </c>
+      <c r="G29">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H29">
+        <v>14.8</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2.3</v>
+      </c>
+      <c r="K29">
+        <v>2.032</v>
+      </c>
+      <c r="L29">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M29">
+        <v>2.0434788</v>
+      </c>
+      <c r="N29">
+        <v>-1.775478800000001</v>
+      </c>
+      <c r="O29">
+        <v>-0.3018313960000001</v>
+      </c>
+      <c r="P29">
+        <v>-1.473647404</v>
+      </c>
+      <c r="Q29">
+        <v>0.5583525959999995</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06927036898577603</v>
+      </c>
+      <c r="T29">
+        <v>1.270558664952882</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.0222953132667684</v>
+      </c>
+      <c r="W29">
+        <v>0.1796043509528946</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.1311489015692259</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1008045441168981</v>
+      </c>
+      <c r="C30">
+        <v>13.69957321560396</v>
+      </c>
+      <c r="D30">
+        <v>16.86557321560396</v>
+      </c>
+      <c r="E30">
+        <v>-14.864</v>
+      </c>
+      <c r="F30">
+        <v>11.536</v>
+      </c>
+      <c r="G30">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H30">
+        <v>14.8</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2.3</v>
+      </c>
+      <c r="K30">
+        <v>2.032</v>
+      </c>
+      <c r="L30">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M30">
+        <v>2.1191632</v>
+      </c>
+      <c r="N30">
+        <v>-1.851163200000001</v>
+      </c>
+      <c r="O30">
+        <v>-0.3146977440000001</v>
+      </c>
+      <c r="P30">
+        <v>-1.536465456000001</v>
+      </c>
+      <c r="Q30">
+        <v>0.4955345439999994</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07010329077724514</v>
+      </c>
+      <c r="T30">
+        <v>1.288205313077228</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.02149905207866952</v>
+      </c>
+      <c r="W30">
+        <v>0.1797506241331484</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.1264650122274678</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.102548544116898</v>
+      </c>
+      <c r="C31">
+        <v>12.9721413773209</v>
+      </c>
+      <c r="D31">
+        <v>16.55014137732089</v>
+      </c>
+      <c r="E31">
+        <v>-14.452</v>
+      </c>
+      <c r="F31">
+        <v>11.948</v>
+      </c>
+      <c r="G31">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H31">
+        <v>14.8</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2.3</v>
+      </c>
+      <c r="K31">
+        <v>2.032</v>
+      </c>
+      <c r="L31">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M31">
+        <v>2.1948476</v>
+      </c>
+      <c r="N31">
+        <v>-1.9268476</v>
+      </c>
+      <c r="O31">
+        <v>-0.3275640920000001</v>
+      </c>
+      <c r="P31">
+        <v>-1.599283508</v>
+      </c>
+      <c r="Q31">
+        <v>0.4327164919999997</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07095967515438942</v>
+      </c>
+      <c r="T31">
+        <v>1.306349049881132</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.02075770545526713</v>
+      </c>
+      <c r="W31">
+        <v>0.1798868095078674</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.1221041497368655</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.104292544116898</v>
+      </c>
+      <c r="C32">
+        <v>12.25629177701407</v>
+      </c>
+      <c r="D32">
+        <v>16.24629177701407</v>
+      </c>
+      <c r="E32">
+        <v>-14.04</v>
+      </c>
+      <c r="F32">
+        <v>12.36</v>
+      </c>
+      <c r="G32">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H32">
+        <v>14.8</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2.3</v>
+      </c>
+      <c r="K32">
+        <v>2.032</v>
+      </c>
+      <c r="L32">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M32">
+        <v>2.270532</v>
+      </c>
+      <c r="N32">
+        <v>-2.002532</v>
+      </c>
+      <c r="O32">
+        <v>-0.3404304400000001</v>
+      </c>
+      <c r="P32">
+        <v>-1.66210156</v>
+      </c>
+      <c r="Q32">
+        <v>0.3698984399999996</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.071840527656595</v>
+      </c>
+      <c r="T32">
+        <v>1.325011179165148</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.02006578194009156</v>
+      </c>
+      <c r="W32">
+        <v>0.1800139158576052</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.1180340114123033</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.106036544116898</v>
+      </c>
+      <c r="C33">
+        <v>11.55139798886226</v>
+      </c>
+      <c r="D33">
+        <v>15.95339798886227</v>
+      </c>
+      <c r="E33">
+        <v>-13.628</v>
+      </c>
+      <c r="F33">
+        <v>12.772</v>
+      </c>
+      <c r="G33">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H33">
+        <v>14.8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>2.3</v>
+      </c>
+      <c r="K33">
+        <v>2.032</v>
+      </c>
+      <c r="L33">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M33">
+        <v>2.3462164</v>
+      </c>
+      <c r="N33">
+        <v>-2.0782164</v>
+      </c>
+      <c r="O33">
+        <v>-0.353296788</v>
+      </c>
+      <c r="P33">
+        <v>-1.724919612</v>
+      </c>
+      <c r="Q33">
+        <v>0.3070803879999999</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07274691211538623</v>
+      </c>
+      <c r="T33">
+        <v>1.344214239732759</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.01941849865170151</v>
+      </c>
+      <c r="W33">
+        <v>0.1801328217976824</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.1142264626570677</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1077805441168981</v>
+      </c>
+      <c r="C34">
+        <v>10.85687796074838</v>
+      </c>
+      <c r="D34">
+        <v>15.67087796074839</v>
+      </c>
+      <c r="E34">
+        <v>-13.216</v>
+      </c>
+      <c r="F34">
+        <v>13.184</v>
+      </c>
+      <c r="G34">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H34">
+        <v>14.8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2.3</v>
+      </c>
+      <c r="K34">
+        <v>2.032</v>
+      </c>
+      <c r="L34">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M34">
+        <v>2.4219008</v>
+      </c>
+      <c r="N34">
+        <v>-2.153900800000001</v>
+      </c>
+      <c r="O34">
+        <v>-0.3661631360000001</v>
+      </c>
+      <c r="P34">
+        <v>-1.787737664</v>
+      </c>
+      <c r="Q34">
+        <v>0.2442623359999996</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.0736799549406125</v>
+      </c>
+      <c r="T34">
+        <v>1.363982096199417</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.01881167056883584</v>
+      </c>
+      <c r="W34">
+        <v>0.1802442961165049</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.1106568856990343</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.109524544116898</v>
+      </c>
+      <c r="C35">
+        <v>10.17219015354152</v>
+      </c>
+      <c r="D35">
+        <v>15.39819015354152</v>
+      </c>
+      <c r="E35">
+        <v>-12.804</v>
+      </c>
+      <c r="F35">
+        <v>13.596</v>
+      </c>
+      <c r="G35">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H35">
+        <v>14.8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>2.3</v>
+      </c>
+      <c r="K35">
+        <v>2.032</v>
+      </c>
+      <c r="L35">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M35">
+        <v>2.497585200000001</v>
+      </c>
+      <c r="N35">
+        <v>-2.229585200000001</v>
+      </c>
+      <c r="O35">
+        <v>-0.3790294840000001</v>
+      </c>
+      <c r="P35">
+        <v>-1.850555716000001</v>
+      </c>
+      <c r="Q35">
+        <v>0.1814442839999995</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07464084979047239</v>
+      </c>
+      <c r="T35">
+        <v>1.384340037933737</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.01824161994553778</v>
+      </c>
+      <c r="W35">
+        <v>0.1803490144160047</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.1073036467384575</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1112685441168981</v>
+      </c>
+      <c r="C36">
+        <v>9.496830076565317</v>
+      </c>
+      <c r="D36">
+        <v>15.13483007656532</v>
+      </c>
+      <c r="E36">
+        <v>-12.392</v>
+      </c>
+      <c r="F36">
+        <v>14.008</v>
+      </c>
+      <c r="G36">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H36">
+        <v>14.8</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>2.3</v>
+      </c>
+      <c r="K36">
+        <v>2.032</v>
+      </c>
+      <c r="L36">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M36">
+        <v>2.573269600000001</v>
+      </c>
+      <c r="N36">
+        <v>-2.305269600000001</v>
+      </c>
+      <c r="O36">
+        <v>-0.3918958320000002</v>
+      </c>
+      <c r="P36">
+        <v>-1.913373768000001</v>
+      </c>
+      <c r="Q36">
+        <v>0.1186262319999993</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07563086266608561</v>
+      </c>
+      <c r="T36">
+        <v>1.405314886993339</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.01770510171184549</v>
+      </c>
+      <c r="W36">
+        <v>0.180447572815534</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.1041476571285028</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.113012544116898</v>
+      </c>
+      <c r="C37">
+        <v>8.830327172617864</v>
+      </c>
+      <c r="D37">
+        <v>14.88032717261787</v>
+      </c>
+      <c r="E37">
+        <v>-11.98</v>
+      </c>
+      <c r="F37">
+        <v>14.42</v>
+      </c>
+      <c r="G37">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H37">
+        <v>14.8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>2.3</v>
+      </c>
+      <c r="K37">
+        <v>2.032</v>
+      </c>
+      <c r="L37">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M37">
+        <v>2.648954</v>
+      </c>
+      <c r="N37">
+        <v>-2.380954</v>
+      </c>
+      <c r="O37">
+        <v>-0.4047621800000001</v>
+      </c>
+      <c r="P37">
+        <v>-1.97619182</v>
+      </c>
+      <c r="Q37">
+        <v>0.05580817999999965</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07665133747633307</v>
+      </c>
+      <c r="T37">
+        <v>1.426935116024006</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.01719924166293562</v>
+      </c>
+      <c r="W37">
+        <v>0.1805404993065187</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.1011720097819743</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.114756544116898</v>
+      </c>
+      <c r="C38">
+        <v>8.17224201207744</v>
+      </c>
+      <c r="D38">
+        <v>14.63424201207744</v>
+      </c>
+      <c r="E38">
+        <v>-11.568</v>
+      </c>
+      <c r="F38">
+        <v>14.832</v>
+      </c>
+      <c r="G38">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H38">
+        <v>14.8</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2.3</v>
+      </c>
+      <c r="K38">
+        <v>2.032</v>
+      </c>
+      <c r="L38">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M38">
+        <v>2.7246384</v>
+      </c>
+      <c r="N38">
+        <v>-2.456638400000001</v>
+      </c>
+      <c r="O38">
+        <v>-0.4176285280000001</v>
+      </c>
+      <c r="P38">
+        <v>-2.039009872</v>
+      </c>
+      <c r="Q38">
+        <v>-0.00700987200000025</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07770370212440077</v>
+      </c>
+      <c r="T38">
+        <v>1.449230977211881</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.0167214849500763</v>
+      </c>
+      <c r="W38">
+        <v>0.180628263214671</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.09836167617691938</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1165005441168981</v>
+      </c>
+      <c r="C39">
+        <v>7.52216376089587</v>
+      </c>
+      <c r="D39">
+        <v>14.39616376089587</v>
+      </c>
+      <c r="E39">
+        <v>-11.156</v>
+      </c>
+      <c r="F39">
+        <v>15.244</v>
+      </c>
+      <c r="G39">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H39">
+        <v>14.8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2.3</v>
+      </c>
+      <c r="K39">
+        <v>2.032</v>
+      </c>
+      <c r="L39">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M39">
+        <v>2.8003228</v>
+      </c>
+      <c r="N39">
+        <v>-2.532322800000001</v>
+      </c>
+      <c r="O39">
+        <v>-0.4304948760000001</v>
+      </c>
+      <c r="P39">
+        <v>-2.101827924000001</v>
+      </c>
+      <c r="Q39">
+        <v>-0.0698279240000006</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07878947517399444</v>
+      </c>
+      <c r="T39">
+        <v>1.472234643516831</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.01626955292439856</v>
+      </c>
+      <c r="W39">
+        <v>0.180711283127788</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.09570325249646205</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1182445441168981</v>
+      </c>
+      <c r="C40">
+        <v>6.879707891788163</v>
+      </c>
+      <c r="D40">
+        <v>14.16570789178817</v>
+      </c>
+      <c r="E40">
+        <v>-10.744</v>
+      </c>
+      <c r="F40">
+        <v>15.656</v>
+      </c>
+      <c r="G40">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H40">
+        <v>14.8</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2.3</v>
+      </c>
+      <c r="K40">
+        <v>2.032</v>
+      </c>
+      <c r="L40">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M40">
+        <v>2.8760072</v>
+      </c>
+      <c r="N40">
+        <v>-2.6080072</v>
+      </c>
+      <c r="O40">
+        <v>-0.4433612240000001</v>
+      </c>
+      <c r="P40">
+        <v>-2.164645976</v>
+      </c>
+      <c r="Q40">
+        <v>-0.1326459760000001</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.07991027316067177</v>
+      </c>
+      <c r="T40">
+        <v>1.495980363573554</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.01584140679480913</v>
+      </c>
+      <c r="W40">
+        <v>0.1807899335717936</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.09318474585181835</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1199885441168981</v>
+      </c>
+      <c r="C41">
+        <v>6.244514111796011</v>
+      </c>
+      <c r="D41">
+        <v>13.94251411179602</v>
+      </c>
+      <c r="E41">
+        <v>-10.332</v>
+      </c>
+      <c r="F41">
+        <v>16.068</v>
+      </c>
+      <c r="G41">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H41">
+        <v>14.8</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2.3</v>
+      </c>
+      <c r="K41">
+        <v>2.032</v>
+      </c>
+      <c r="L41">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M41">
+        <v>2.9516916</v>
+      </c>
+      <c r="N41">
+        <v>-2.6836916</v>
+      </c>
+      <c r="O41">
+        <v>-0.4562275720000001</v>
+      </c>
+      <c r="P41">
+        <v>-2.227464028</v>
+      </c>
+      <c r="Q41">
+        <v>-0.1954640280000004</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08106781862232214</v>
+      </c>
+      <c r="T41">
+        <v>1.520504631828859</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.01543521687699351</v>
+      </c>
+      <c r="W41">
+        <v>0.1808645506596963</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.09079539339407949</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.121732544116898</v>
+      </c>
+      <c r="C42">
+        <v>5.616244482731229</v>
+      </c>
+      <c r="D42">
+        <v>13.72624448273123</v>
+      </c>
+      <c r="E42">
+        <v>-9.919999999999998</v>
+      </c>
+      <c r="F42">
+        <v>16.48</v>
+      </c>
+      <c r="G42">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H42">
+        <v>14.8</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2.3</v>
+      </c>
+      <c r="K42">
+        <v>2.032</v>
+      </c>
+      <c r="L42">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M42">
+        <v>3.027376</v>
+      </c>
+      <c r="N42">
+        <v>-2.759376</v>
+      </c>
+      <c r="O42">
+        <v>-0.4690939200000001</v>
+      </c>
+      <c r="P42">
+        <v>-2.29028208</v>
+      </c>
+      <c r="Q42">
+        <v>-0.2582820800000003</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08226394893269416</v>
+      </c>
+      <c r="T42">
+        <v>1.545846375692673</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.01504933645506867</v>
+      </c>
+      <c r="W42">
+        <v>0.1809354368932039</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.08852550855922747</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1234765441168981</v>
+      </c>
+      <c r="C43">
+        <v>4.994581713875878</v>
+      </c>
+      <c r="D43">
+        <v>13.51658171387588</v>
+      </c>
+      <c r="E43">
+        <v>-9.507999999999996</v>
+      </c>
+      <c r="F43">
+        <v>16.892</v>
+      </c>
+      <c r="G43">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H43">
+        <v>14.8</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2.3</v>
+      </c>
+      <c r="K43">
+        <v>2.032</v>
+      </c>
+      <c r="L43">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M43">
+        <v>3.1030604</v>
+      </c>
+      <c r="N43">
+        <v>-2.835060400000001</v>
+      </c>
+      <c r="O43">
+        <v>-0.4819602680000001</v>
+      </c>
+      <c r="P43">
+        <v>-2.353100132000001</v>
+      </c>
+      <c r="Q43">
+        <v>-0.3211001320000006</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08350062603324832</v>
+      </c>
+      <c r="T43">
+        <v>1.572047161721362</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.01468227946835968</v>
+      </c>
+      <c r="W43">
+        <v>0.1810028652616623</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.08636634981388047</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1252205441168981</v>
+      </c>
+      <c r="C44">
+        <v>4.379227608798285</v>
+      </c>
+      <c r="D44">
+        <v>13.31322760879829</v>
+      </c>
+      <c r="E44">
+        <v>-9.095999999999997</v>
+      </c>
+      <c r="F44">
+        <v>17.304</v>
+      </c>
+      <c r="G44">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H44">
+        <v>14.8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>2.3</v>
+      </c>
+      <c r="K44">
+        <v>2.032</v>
+      </c>
+      <c r="L44">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M44">
+        <v>3.1787448</v>
+      </c>
+      <c r="N44">
+        <v>-2.910744800000001</v>
+      </c>
+      <c r="O44">
+        <v>-0.4948266160000002</v>
+      </c>
+      <c r="P44">
+        <v>-2.415918184000001</v>
+      </c>
+      <c r="Q44">
+        <v>-0.3839181840000006</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08477994717175258</v>
+      </c>
+      <c r="T44">
+        <v>1.599151423130351</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.01433270138577968</v>
+      </c>
+      <c r="W44">
+        <v>0.1810670827554323</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.08431000815164513</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1269645441168981</v>
+      </c>
+      <c r="C45">
+        <v>3.769901650294788</v>
+      </c>
+      <c r="D45">
+        <v>13.11590165029479</v>
+      </c>
+      <c r="E45">
+        <v>-8.683999999999997</v>
+      </c>
+      <c r="F45">
+        <v>17.716</v>
+      </c>
+      <c r="G45">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H45">
+        <v>14.8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>2.3</v>
+      </c>
+      <c r="K45">
+        <v>2.032</v>
+      </c>
+      <c r="L45">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M45">
+        <v>3.2544292</v>
+      </c>
+      <c r="N45">
+        <v>-2.9864292</v>
+      </c>
+      <c r="O45">
+        <v>-0.5076929640000001</v>
+      </c>
+      <c r="P45">
+        <v>-2.478736236</v>
+      </c>
+      <c r="Q45">
+        <v>-0.4467362360000005</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08610415677125702</v>
+      </c>
+      <c r="T45">
+        <v>1.627206711255445</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.01399938274890109</v>
+      </c>
+      <c r="W45">
+        <v>0.1811283133890269</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.08234931028765347</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1287085441168981</v>
+      </c>
+      <c r="C46">
+        <v>3.166339709335851</v>
+      </c>
+      <c r="D46">
+        <v>12.92433970933585</v>
+      </c>
+      <c r="E46">
+        <v>-8.271999999999998</v>
+      </c>
+      <c r="F46">
+        <v>18.128</v>
+      </c>
+      <c r="G46">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H46">
+        <v>14.8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2.3</v>
+      </c>
+      <c r="K46">
+        <v>2.032</v>
+      </c>
+      <c r="L46">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M46">
+        <v>3.3301136</v>
+      </c>
+      <c r="N46">
+        <v>-3.0621136</v>
+      </c>
+      <c r="O46">
+        <v>-0.5205593120000002</v>
+      </c>
+      <c r="P46">
+        <v>-2.541554288</v>
+      </c>
+      <c r="Q46">
+        <v>-0.5095542880000004</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08747565957074374</v>
+      </c>
+      <c r="T46">
+        <v>1.656263973956435</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.01368121495915334</v>
+      </c>
+      <c r="W46">
+        <v>0.1811867608120035</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.08047773505384315</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1304525441168981</v>
+      </c>
+      <c r="C47">
+        <v>2.568292865521048</v>
+      </c>
+      <c r="D47">
+        <v>12.73829286552105</v>
+      </c>
+      <c r="E47">
+        <v>-7.859999999999996</v>
+      </c>
+      <c r="F47">
+        <v>18.54</v>
+      </c>
+      <c r="G47">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H47">
+        <v>14.8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2.3</v>
+      </c>
+      <c r="K47">
+        <v>2.032</v>
+      </c>
+      <c r="L47">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M47">
+        <v>3.405798</v>
+      </c>
+      <c r="N47">
+        <v>-3.137798000000001</v>
+      </c>
+      <c r="O47">
+        <v>-0.5334256600000001</v>
+      </c>
+      <c r="P47">
+        <v>-2.60437234</v>
+      </c>
+      <c r="Q47">
+        <v>-0.5723723400000003</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08889703519930273</v>
+      </c>
+      <c r="T47">
+        <v>1.686377864392007</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.01337718796006104</v>
+      </c>
+      <c r="W47">
+        <v>0.1812426105717368</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.07868934094153557</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1321965441168981</v>
+      </c>
+      <c r="C48">
+        <v>1.975526327966197</v>
+      </c>
+      <c r="D48">
+        <v>12.5575263279662</v>
+      </c>
+      <c r="E48">
+        <v>-7.447999999999997</v>
+      </c>
+      <c r="F48">
+        <v>18.952</v>
+      </c>
+      <c r="G48">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H48">
+        <v>14.8</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2.3</v>
+      </c>
+      <c r="K48">
+        <v>2.032</v>
+      </c>
+      <c r="L48">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M48">
+        <v>3.4814824</v>
+      </c>
+      <c r="N48">
+        <v>-3.213482400000001</v>
+      </c>
+      <c r="O48">
+        <v>-0.5462920080000001</v>
+      </c>
+      <c r="P48">
+        <v>-2.667190392000001</v>
+      </c>
+      <c r="Q48">
+        <v>-0.6351903920000006</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09037105436966018</v>
+      </c>
+      <c r="T48">
+        <v>1.71760708410297</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.01308637952614667</v>
+      </c>
+      <c r="W48">
+        <v>0.1812960320810469</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.07697870309498034</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.133940544116898</v>
+      </c>
+      <c r="C49">
+        <v>1.387818446785634</v>
+      </c>
+      <c r="D49">
+        <v>12.38181844678564</v>
+      </c>
+      <c r="E49">
+        <v>-7.035999999999998</v>
+      </c>
+      <c r="F49">
+        <v>19.364</v>
+      </c>
+      <c r="G49">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H49">
+        <v>14.8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>2.3</v>
+      </c>
+      <c r="K49">
+        <v>2.032</v>
+      </c>
+      <c r="L49">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M49">
+        <v>3.5571668</v>
+      </c>
+      <c r="N49">
+        <v>-3.2891668</v>
+      </c>
+      <c r="O49">
+        <v>-0.5591583560000001</v>
+      </c>
+      <c r="P49">
+        <v>-2.730008444</v>
+      </c>
+      <c r="Q49">
+        <v>-0.6980084440000001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09190069690493678</v>
+      </c>
+      <c r="T49">
+        <v>1.750014764935101</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.01280794591920738</v>
+      </c>
+      <c r="W49">
+        <v>0.1813471803346416</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.07534085834827864</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1356845441168981</v>
+      </c>
+      <c r="C50">
+        <v>0.804959806418811</v>
+      </c>
+      <c r="D50">
+        <v>12.21095980641881</v>
+      </c>
+      <c r="E50">
+        <v>-6.623999999999999</v>
+      </c>
+      <c r="F50">
+        <v>19.776</v>
+      </c>
+      <c r="G50">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H50">
+        <v>14.8</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2.3</v>
+      </c>
+      <c r="K50">
+        <v>2.032</v>
+      </c>
+      <c r="L50">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M50">
+        <v>3.6328512</v>
+      </c>
+      <c r="N50">
+        <v>-3.3648512</v>
+      </c>
+      <c r="O50">
+        <v>-0.5720247040000001</v>
+      </c>
+      <c r="P50">
+        <v>-2.792826496</v>
+      </c>
+      <c r="Q50">
+        <v>-0.7608264960000004</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.09348917184541633</v>
+      </c>
+      <c r="T50">
+        <v>1.783668895030007</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.01254111371255722</v>
+      </c>
+      <c r="W50">
+        <v>0.1813961974110032</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.07377125713268951</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.137428544116898</v>
+      </c>
+      <c r="C51">
+        <v>0.2267523930030677</v>
+      </c>
+      <c r="D51">
+        <v>12.04475239300307</v>
+      </c>
+      <c r="E51">
+        <v>-6.211999999999996</v>
+      </c>
+      <c r="F51">
+        <v>20.188</v>
+      </c>
+      <c r="G51">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H51">
+        <v>14.8</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2.3</v>
+      </c>
+      <c r="K51">
+        <v>2.032</v>
+      </c>
+      <c r="L51">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M51">
+        <v>3.7085356</v>
+      </c>
+      <c r="N51">
+        <v>-3.4405356</v>
+      </c>
+      <c r="O51">
+        <v>-0.5848910520000001</v>
+      </c>
+      <c r="P51">
+        <v>-2.855644548</v>
+      </c>
+      <c r="Q51">
+        <v>-0.8236445480000003</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.09513993992081667</v>
+      </c>
+      <c r="T51">
+        <v>1.818642794932557</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.01228517261638259</v>
+      </c>
+      <c r="W51">
+        <v>0.1814432137903705</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.0722657212728387</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1391725441168981</v>
+      </c>
+      <c r="C52">
+        <v>-0.3469911711677405</v>
+      </c>
+      <c r="D52">
+        <v>11.88300882883226</v>
+      </c>
+      <c r="E52">
+        <v>-5.799999999999997</v>
+      </c>
+      <c r="F52">
+        <v>20.6</v>
+      </c>
+      <c r="G52">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H52">
+        <v>14.8</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>2.3</v>
+      </c>
+      <c r="K52">
+        <v>2.032</v>
+      </c>
+      <c r="L52">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M52">
+        <v>3.78422</v>
+      </c>
+      <c r="N52">
+        <v>-3.516220000000001</v>
+      </c>
+      <c r="O52">
+        <v>-0.5977574000000001</v>
+      </c>
+      <c r="P52">
+        <v>-2.918462600000001</v>
+      </c>
+      <c r="Q52">
+        <v>-0.8864626000000007</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.096856738719233</v>
+      </c>
+      <c r="T52">
+        <v>1.855015650831208</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.01203946916405493</v>
+      </c>
+      <c r="W52">
+        <v>0.1814883495145631</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.070820406847382</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1409165441168981</v>
+      </c>
+      <c r="C53">
+        <v>-0.9164483323212558</v>
+      </c>
+      <c r="D53">
+        <v>11.72555166767875</v>
+      </c>
+      <c r="E53">
+        <v>-5.387999999999998</v>
+      </c>
+      <c r="F53">
+        <v>21.012</v>
+      </c>
+      <c r="G53">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H53">
+        <v>14.8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2.3</v>
+      </c>
+      <c r="K53">
+        <v>2.032</v>
+      </c>
+      <c r="L53">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M53">
+        <v>3.8599044</v>
+      </c>
+      <c r="N53">
+        <v>-3.5919044</v>
+      </c>
+      <c r="O53">
+        <v>-0.6106237480000001</v>
+      </c>
+      <c r="P53">
+        <v>-2.981280652</v>
+      </c>
+      <c r="Q53">
+        <v>-0.9492806520000001</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.09864361093799287</v>
+      </c>
+      <c r="T53">
+        <v>1.892873113093069</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.01180340114123033</v>
+      </c>
+      <c r="W53">
+        <v>0.181531715210356</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.06943177141900192</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.142660544116898</v>
+      </c>
+      <c r="C54">
+        <v>-1.481787254592799</v>
+      </c>
+      <c r="D54">
+        <v>11.5722127454072</v>
+      </c>
+      <c r="E54">
+        <v>-4.975999999999996</v>
+      </c>
+      <c r="F54">
+        <v>21.424</v>
+      </c>
+      <c r="G54">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H54">
+        <v>14.8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>2.3</v>
+      </c>
+      <c r="K54">
+        <v>2.032</v>
+      </c>
+      <c r="L54">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M54">
+        <v>3.935588800000001</v>
+      </c>
+      <c r="N54">
+        <v>-3.667588800000001</v>
+      </c>
+      <c r="O54">
+        <v>-0.6234900960000002</v>
+      </c>
+      <c r="P54">
+        <v>-3.044098704</v>
+      </c>
+      <c r="Q54">
+        <v>-1.012098704</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1005049361658677</v>
+      </c>
+      <c r="T54">
+        <v>1.932307969615841</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.01157641265774513</v>
+      </c>
+      <c r="W54">
+        <v>0.1815734129947722</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.06809654504555962</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.144404544116898</v>
+      </c>
+      <c r="C55">
+        <v>-2.043167419115822</v>
+      </c>
+      <c r="D55">
+        <v>11.42283258088418</v>
+      </c>
+      <c r="E55">
+        <v>-4.563999999999997</v>
+      </c>
+      <c r="F55">
+        <v>21.836</v>
+      </c>
+      <c r="G55">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H55">
+        <v>14.8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2.3</v>
+      </c>
+      <c r="K55">
+        <v>2.032</v>
+      </c>
+      <c r="L55">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M55">
+        <v>4.011273200000001</v>
+      </c>
+      <c r="N55">
+        <v>-3.743273200000001</v>
+      </c>
+      <c r="O55">
+        <v>-0.6363564440000002</v>
+      </c>
+      <c r="P55">
+        <v>-3.106916756</v>
+      </c>
+      <c r="Q55">
+        <v>-1.074916756</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1024454667225883</v>
+      </c>
+      <c r="T55">
+        <v>1.973420905139582</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.01135798977741031</v>
+      </c>
+      <c r="W55">
+        <v>0.1816135372778897</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.0668117045730019</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1461485441168981</v>
+      </c>
+      <c r="C56">
+        <v>-2.600740177303482</v>
+      </c>
+      <c r="D56">
+        <v>11.27725982269652</v>
+      </c>
+      <c r="E56">
+        <v>-4.151999999999994</v>
+      </c>
+      <c r="F56">
+        <v>22.248</v>
+      </c>
+      <c r="G56">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H56">
+        <v>14.8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>2.3</v>
+      </c>
+      <c r="K56">
+        <v>2.032</v>
+      </c>
+      <c r="L56">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M56">
+        <v>4.086957600000001</v>
+      </c>
+      <c r="N56">
+        <v>-3.818957600000001</v>
+      </c>
+      <c r="O56">
+        <v>-0.6492227920000002</v>
+      </c>
+      <c r="P56">
+        <v>-3.169734808000001</v>
+      </c>
+      <c r="Q56">
+        <v>-1.137734808000001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1044703681730794</v>
+      </c>
+      <c r="T56">
+        <v>2.016321359599139</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.0111476566333842</v>
+      </c>
+      <c r="W56">
+        <v>0.1816521754764473</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.06557445078461288</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1478925441168981</v>
+      </c>
+      <c r="C57">
+        <v>-3.154649262356379</v>
+      </c>
+      <c r="D57">
+        <v>11.13535073764362</v>
+      </c>
+      <c r="E57">
+        <v>-3.739999999999995</v>
+      </c>
+      <c r="F57">
+        <v>22.66</v>
+      </c>
+      <c r="G57">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H57">
+        <v>14.8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>2.3</v>
+      </c>
+      <c r="K57">
+        <v>2.032</v>
+      </c>
+      <c r="L57">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M57">
+        <v>4.162642000000001</v>
+      </c>
+      <c r="N57">
+        <v>-3.894642000000001</v>
+      </c>
+      <c r="O57">
+        <v>-0.6620891400000002</v>
+      </c>
+      <c r="P57">
+        <v>-3.232552860000001</v>
+      </c>
+      <c r="Q57">
+        <v>-1.200552860000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1065852652435922</v>
+      </c>
+      <c r="T57">
+        <v>2.061128500923564</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.01094497196732267</v>
+      </c>
+      <c r="W57">
+        <v>0.1816894086496028</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.0643821880430745</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1496365441168981</v>
+      </c>
+      <c r="C58">
+        <v>-3.705031262630481</v>
+      </c>
+      <c r="D58">
+        <v>10.99696873736952</v>
+      </c>
+      <c r="E58">
+        <v>-3.327999999999996</v>
+      </c>
+      <c r="F58">
+        <v>23.072</v>
+      </c>
+      <c r="G58">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H58">
+        <v>14.8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2.3</v>
+      </c>
+      <c r="K58">
+        <v>2.032</v>
+      </c>
+      <c r="L58">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M58">
+        <v>4.238326400000001</v>
+      </c>
+      <c r="N58">
+        <v>-3.970326400000001</v>
+      </c>
+      <c r="O58">
+        <v>-0.6749554880000003</v>
+      </c>
+      <c r="P58">
+        <v>-3.295370912000001</v>
+      </c>
+      <c r="Q58">
+        <v>-1.263370912000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1087962939991284</v>
+      </c>
+      <c r="T58">
+        <v>2.107972330490009</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.01074952603933476</v>
+      </c>
+      <c r="W58">
+        <v>0.1817253120665742</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.06323250611373388</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1513805441168981</v>
+      </c>
+      <c r="C59">
+        <v>-4.252016060142186</v>
+      </c>
+      <c r="D59">
+        <v>10.86198393985782</v>
+      </c>
+      <c r="E59">
+        <v>-2.915999999999993</v>
+      </c>
+      <c r="F59">
+        <v>23.48400000000001</v>
+      </c>
+      <c r="G59">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H59">
+        <v>14.8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2.3</v>
+      </c>
+      <c r="K59">
+        <v>2.032</v>
+      </c>
+      <c r="L59">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M59">
+        <v>4.314010800000001</v>
+      </c>
+      <c r="N59">
+        <v>-4.046010800000001</v>
+      </c>
+      <c r="O59">
+        <v>-0.6878218360000002</v>
+      </c>
+      <c r="P59">
+        <v>-3.358188964000001</v>
+      </c>
+      <c r="Q59">
+        <v>-1.326188964000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1111101613014337</v>
+      </c>
+      <c r="T59">
+        <v>2.156994942826986</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.01056093786320608</v>
+      </c>
+      <c r="W59">
+        <v>0.181759955714529</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.0621231639012122</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.153124544116898</v>
+      </c>
+      <c r="C60">
+        <v>-4.795727237169899</v>
+      </c>
+      <c r="D60">
+        <v>10.7302727628301</v>
+      </c>
+      <c r="E60">
+        <v>-2.503999999999998</v>
+      </c>
+      <c r="F60">
+        <v>23.896</v>
+      </c>
+      <c r="G60">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H60">
+        <v>14.8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>2.3</v>
+      </c>
+      <c r="K60">
+        <v>2.032</v>
+      </c>
+      <c r="L60">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M60">
+        <v>4.3896952</v>
+      </c>
+      <c r="N60">
+        <v>-4.1216952</v>
+      </c>
+      <c r="O60">
+        <v>-0.7006881840000001</v>
+      </c>
+      <c r="P60">
+        <v>-3.421007016</v>
+      </c>
+      <c r="Q60">
+        <v>-1.389007016</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1135342127609917</v>
+      </c>
+      <c r="T60">
+        <v>2.208351965275247</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.01037885272763356</v>
+      </c>
+      <c r="W60">
+        <v>0.1817934047539337</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.06105207486843278</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.154868544116898</v>
+      </c>
+      <c r="C61">
+        <v>-5.336282453627572</v>
+      </c>
+      <c r="D61">
+        <v>10.60171754637243</v>
+      </c>
+      <c r="E61">
+        <v>-2.091999999999999</v>
+      </c>
+      <c r="F61">
+        <v>24.308</v>
+      </c>
+      <c r="G61">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H61">
+        <v>14.8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>2.3</v>
+      </c>
+      <c r="K61">
+        <v>2.032</v>
+      </c>
+      <c r="L61">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M61">
+        <v>4.4653796</v>
+      </c>
+      <c r="N61">
+        <v>-4.197379600000001</v>
+      </c>
+      <c r="O61">
+        <v>-0.7135545320000002</v>
+      </c>
+      <c r="P61">
+        <v>-3.483825068</v>
+      </c>
+      <c r="Q61">
+        <v>-1.451825068</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.116076510633211</v>
+      </c>
+      <c r="T61">
+        <v>2.262214208330741</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.01020293996953808</v>
+      </c>
+      <c r="W61">
+        <v>0.1818257199275959</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.06001729393845934</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1566125441168981</v>
+      </c>
+      <c r="C62">
+        <v>-5.873793797632342</v>
+      </c>
+      <c r="D62">
+        <v>10.47620620236766</v>
+      </c>
+      <c r="E62">
+        <v>-1.679999999999996</v>
+      </c>
+      <c r="F62">
+        <v>24.72</v>
+      </c>
+      <c r="G62">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H62">
+        <v>14.8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>2.3</v>
+      </c>
+      <c r="K62">
+        <v>2.032</v>
+      </c>
+      <c r="L62">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M62">
+        <v>4.541064</v>
+      </c>
+      <c r="N62">
+        <v>-4.273064000000001</v>
+      </c>
+      <c r="O62">
+        <v>-0.7264208800000002</v>
+      </c>
+      <c r="P62">
+        <v>-3.546643120000001</v>
+      </c>
+      <c r="Q62">
+        <v>-1.514643120000001</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1187459233990413</v>
+      </c>
+      <c r="T62">
+        <v>2.31876956353901</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.01003289097004578</v>
+      </c>
+      <c r="W62">
+        <v>0.1818569579288026</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.05901700570615165</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1583565441168981</v>
+      </c>
+      <c r="C63">
+        <v>-6.408368111461865</v>
+      </c>
+      <c r="D63">
+        <v>10.35363188853814</v>
+      </c>
+      <c r="E63">
+        <v>-1.267999999999997</v>
+      </c>
+      <c r="F63">
+        <v>25.132</v>
+      </c>
+      <c r="G63">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H63">
+        <v>14.8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>2.3</v>
+      </c>
+      <c r="K63">
+        <v>2.032</v>
+      </c>
+      <c r="L63">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M63">
+        <v>4.616748400000001</v>
+      </c>
+      <c r="N63">
+        <v>-4.348748400000001</v>
+      </c>
+      <c r="O63">
+        <v>-0.7392872280000001</v>
+      </c>
+      <c r="P63">
+        <v>-3.609461172</v>
+      </c>
+      <c r="Q63">
+        <v>-1.577461172</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1215522291272218</v>
+      </c>
+      <c r="T63">
+        <v>2.378225193373343</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.009868417347586011</v>
+      </c>
+      <c r="W63">
+        <v>0.1818871717332484</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.05804951380932943</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1601005441168981</v>
+      </c>
+      <c r="C64">
+        <v>-6.940107294893547</v>
+      </c>
+      <c r="D64">
+        <v>10.23389270510646</v>
+      </c>
+      <c r="E64">
+        <v>-0.8559999999999981</v>
+      </c>
+      <c r="F64">
+        <v>25.544</v>
+      </c>
+      <c r="G64">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H64">
+        <v>14.8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>2.3</v>
+      </c>
+      <c r="K64">
+        <v>2.032</v>
+      </c>
+      <c r="L64">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M64">
+        <v>4.6924328</v>
+      </c>
+      <c r="N64">
+        <v>-4.4244328</v>
+      </c>
+      <c r="O64">
+        <v>-0.752153576</v>
+      </c>
+      <c r="P64">
+        <v>-3.672279224</v>
+      </c>
+      <c r="Q64">
+        <v>-1.640279224</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1245062351568855</v>
+      </c>
+      <c r="T64">
+        <v>2.440810066883168</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.009709249325850754</v>
+      </c>
+      <c r="W64">
+        <v>0.1819164108988412</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.05711323132853385</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1618445441168981</v>
+      </c>
+      <c r="C65">
+        <v>-7.469108587735779</v>
+      </c>
+      <c r="D65">
+        <v>10.11689141226423</v>
+      </c>
+      <c r="E65">
+        <v>-0.4439999999999955</v>
+      </c>
+      <c r="F65">
+        <v>25.956</v>
+      </c>
+      <c r="G65">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H65">
+        <v>14.8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>2.3</v>
+      </c>
+      <c r="K65">
+        <v>2.032</v>
+      </c>
+      <c r="L65">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M65">
+        <v>4.768117200000001</v>
+      </c>
+      <c r="N65">
+        <v>-4.500117200000001</v>
+      </c>
+      <c r="O65">
+        <v>-0.7650199240000002</v>
+      </c>
+      <c r="P65">
+        <v>-3.735097276000001</v>
+      </c>
+      <c r="Q65">
+        <v>-1.703097276000001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1276199171881527</v>
+      </c>
+      <c r="T65">
+        <v>2.506777906528659</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.009555134257186454</v>
+      </c>
+      <c r="W65">
+        <v>0.1819447218369548</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.05620667210109676</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.163588544116898</v>
+      </c>
+      <c r="C66">
+        <v>-7.995464833197659</v>
+      </c>
+      <c r="D66">
+        <v>10.00253516680234</v>
+      </c>
+      <c r="E66">
+        <v>-0.03199999999999648</v>
+      </c>
+      <c r="F66">
+        <v>26.368</v>
+      </c>
+      <c r="G66">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H66">
+        <v>14.8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>2.3</v>
+      </c>
+      <c r="K66">
+        <v>2.032</v>
+      </c>
+      <c r="L66">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M66">
+        <v>4.843801600000001</v>
+      </c>
+      <c r="N66">
+        <v>-4.575801600000001</v>
+      </c>
+      <c r="O66">
+        <v>-0.7778862720000003</v>
+      </c>
+      <c r="P66">
+        <v>-3.797915328000001</v>
+      </c>
+      <c r="Q66">
+        <v>-1.765915328000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1309065815544903</v>
+      </c>
+      <c r="T66">
+        <v>2.576410626154455</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.009405835284417918</v>
+      </c>
+      <c r="W66">
+        <v>0.1819721480582524</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.0553284428495171</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.165332544116898</v>
+      </c>
+      <c r="C67">
+        <v>-8.519264723596386</v>
+      </c>
+      <c r="D67">
+        <v>9.890735276403618</v>
+      </c>
+      <c r="E67">
+        <v>0.3800000000000026</v>
+      </c>
+      <c r="F67">
+        <v>26.78</v>
+      </c>
+      <c r="G67">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H67">
+        <v>14.8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>2.3</v>
+      </c>
+      <c r="K67">
+        <v>2.032</v>
+      </c>
+      <c r="L67">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M67">
+        <v>4.919486</v>
+      </c>
+      <c r="N67">
+        <v>-4.651486</v>
+      </c>
+      <c r="O67">
+        <v>-0.7907526200000001</v>
+      </c>
+      <c r="P67">
+        <v>-3.86073338</v>
+      </c>
+      <c r="Q67">
+        <v>-1.82873338</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.13438105531319</v>
+      </c>
+      <c r="T67">
+        <v>2.650022358330297</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.009261130126196105</v>
+      </c>
+      <c r="W67">
+        <v>0.1819987303958178</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.05447723603644772</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1670765441168981</v>
+      </c>
+      <c r="C68">
+        <v>-9.040593029768868</v>
+      </c>
+      <c r="D68">
+        <v>9.781406970231137</v>
+      </c>
+      <c r="E68">
+        <v>0.7920000000000051</v>
+      </c>
+      <c r="F68">
+        <v>27.192</v>
+      </c>
+      <c r="G68">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H68">
+        <v>14.8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2.3</v>
+      </c>
+      <c r="K68">
+        <v>2.032</v>
+      </c>
+      <c r="L68">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M68">
+        <v>4.995170400000001</v>
+      </c>
+      <c r="N68">
+        <v>-4.727170400000001</v>
+      </c>
+      <c r="O68">
+        <v>-0.8036189680000002</v>
+      </c>
+      <c r="P68">
+        <v>-3.923551432000001</v>
+      </c>
+      <c r="Q68">
+        <v>-1.891551432000001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.138059909881225</v>
+      </c>
+      <c r="T68">
+        <v>2.727964192398835</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.009120809972768889</v>
+      </c>
+      <c r="W68">
+        <v>0.1820245072080024</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.0536518233692288</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1688205441168981</v>
+      </c>
+      <c r="C69">
+        <v>-9.559530815434783</v>
+      </c>
+      <c r="D69">
+        <v>9.67446918456522</v>
+      </c>
+      <c r="E69">
+        <v>1.204000000000004</v>
+      </c>
+      <c r="F69">
+        <v>27.604</v>
+      </c>
+      <c r="G69">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H69">
+        <v>14.8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>2.3</v>
+      </c>
+      <c r="K69">
+        <v>2.032</v>
+      </c>
+      <c r="L69">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M69">
+        <v>5.0708548</v>
+      </c>
+      <c r="N69">
+        <v>-4.8028548</v>
+      </c>
+      <c r="O69">
+        <v>-0.8164853160000002</v>
+      </c>
+      <c r="P69">
+        <v>-3.986369484</v>
+      </c>
+      <c r="Q69">
+        <v>-1.954369484</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1419617253321712</v>
+      </c>
+      <c r="T69">
+        <v>2.810629773986678</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.008984678480638011</v>
+      </c>
+      <c r="W69">
+        <v>0.1820495145631068</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.05285104988610589</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1705645441168981</v>
+      </c>
+      <c r="C70">
+        <v>-10.07615563765021</v>
+      </c>
+      <c r="D70">
+        <v>9.569844362349798</v>
+      </c>
+      <c r="E70">
+        <v>1.616000000000007</v>
+      </c>
+      <c r="F70">
+        <v>28.01600000000001</v>
+      </c>
+      <c r="G70">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H70">
+        <v>14.8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2.3</v>
+      </c>
+      <c r="K70">
+        <v>2.032</v>
+      </c>
+      <c r="L70">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M70">
+        <v>5.146539200000001</v>
+      </c>
+      <c r="N70">
+        <v>-4.878539200000001</v>
+      </c>
+      <c r="O70">
+        <v>-0.8293516640000003</v>
+      </c>
+      <c r="P70">
+        <v>-4.049187536000002</v>
+      </c>
+      <c r="Q70">
+        <v>-2.017187536000002</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1461074042488016</v>
+      </c>
+      <c r="T70">
+        <v>2.898461954423762</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.008852550855922745</v>
+      </c>
+      <c r="W70">
+        <v>0.182073786407767</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.05207382856425147</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1723085441168981</v>
+      </c>
+      <c r="C71">
+        <v>-10.59054173439351</v>
+      </c>
+      <c r="D71">
+        <v>9.467458265606492</v>
+      </c>
+      <c r="E71">
+        <v>2.028000000000006</v>
+      </c>
+      <c r="F71">
+        <v>28.428</v>
+      </c>
+      <c r="G71">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H71">
+        <v>14.8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2.3</v>
+      </c>
+      <c r="K71">
+        <v>2.032</v>
+      </c>
+      <c r="L71">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M71">
+        <v>5.222223600000001</v>
+      </c>
+      <c r="N71">
+        <v>-4.954223600000002</v>
+      </c>
+      <c r="O71">
+        <v>-0.8422180120000003</v>
+      </c>
+      <c r="P71">
+        <v>-4.112005588000001</v>
+      </c>
+      <c r="Q71">
+        <v>-2.080005588000001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1505205463213436</v>
+      </c>
+      <c r="T71">
+        <v>2.991960727147109</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.00872425301743111</v>
+      </c>
+      <c r="W71">
+        <v>0.1820973547206979</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.05131913539665356</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1740525441168981</v>
+      </c>
+      <c r="C72">
+        <v>-11.10276020023706</v>
+      </c>
+      <c r="D72">
+        <v>9.367239799762938</v>
+      </c>
+      <c r="E72">
+        <v>2.440000000000005</v>
+      </c>
+      <c r="F72">
+        <v>28.84</v>
+      </c>
+      <c r="G72">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H72">
+        <v>14.8</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>2.3</v>
+      </c>
+      <c r="K72">
+        <v>2.032</v>
+      </c>
+      <c r="L72">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M72">
+        <v>5.297908000000001</v>
+      </c>
+      <c r="N72">
+        <v>-5.029908000000001</v>
+      </c>
+      <c r="O72">
+        <v>-0.8550843600000002</v>
+      </c>
+      <c r="P72">
+        <v>-4.174823640000001</v>
+      </c>
+      <c r="Q72">
+        <v>-2.14282364</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1552278978653883</v>
+      </c>
+      <c r="T72">
+        <v>3.091692751385346</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.00859962083146781</v>
+      </c>
+      <c r="W72">
+        <v>0.1821202496532594</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.05058600489098708</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.175796544116898</v>
+      </c>
+      <c r="C73">
+        <v>-11.61287915097826</v>
+      </c>
+      <c r="D73">
+        <v>9.269120849021737</v>
+      </c>
+      <c r="E73">
+        <v>2.852</v>
+      </c>
+      <c r="F73">
+        <v>29.252</v>
+      </c>
+      <c r="G73">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H73">
+        <v>14.8</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>2.3</v>
+      </c>
+      <c r="K73">
+        <v>2.032</v>
+      </c>
+      <c r="L73">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M73">
+        <v>5.3735924</v>
+      </c>
+      <c r="N73">
+        <v>-5.1055924</v>
+      </c>
+      <c r="O73">
+        <v>-0.8679507080000001</v>
+      </c>
+      <c r="P73">
+        <v>-4.237641692</v>
+      </c>
+      <c r="Q73">
+        <v>-2.205641691999999</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1602598943435052</v>
+      </c>
+      <c r="T73">
+        <v>3.198302846260702</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.008478499411306293</v>
+      </c>
+      <c r="W73">
+        <v>0.182142499658143</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.04987352594886052</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1775405441168981</v>
+      </c>
+      <c r="C74">
+        <v>-12.12096387803111</v>
+      </c>
+      <c r="D74">
+        <v>9.173036121968893</v>
+      </c>
+      <c r="E74">
+        <v>3.264000000000003</v>
+      </c>
+      <c r="F74">
+        <v>29.664</v>
+      </c>
+      <c r="G74">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H74">
+        <v>14.8</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>2.3</v>
+      </c>
+      <c r="K74">
+        <v>2.032</v>
+      </c>
+      <c r="L74">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M74">
+        <v>5.449276800000001</v>
+      </c>
+      <c r="N74">
+        <v>-5.181276800000001</v>
+      </c>
+      <c r="O74">
+        <v>-0.8808170560000003</v>
+      </c>
+      <c r="P74">
+        <v>-4.300459744</v>
+      </c>
+      <c r="Q74">
+        <v>-2.268459744</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1656513191414875</v>
+      </c>
+      <c r="T74">
+        <v>3.312527947912871</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.008360742475038149</v>
+      </c>
+      <c r="W74">
+        <v>0.1821641316073355</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.04918083808845974</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.179284544116898</v>
+      </c>
+      <c r="C75">
+        <v>-12.62707699331359</v>
+      </c>
+      <c r="D75">
+        <v>9.078923006686413</v>
+      </c>
+      <c r="E75">
+        <v>3.676000000000002</v>
+      </c>
+      <c r="F75">
+        <v>30.076</v>
+      </c>
+      <c r="G75">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H75">
+        <v>14.8</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>2.3</v>
+      </c>
+      <c r="K75">
+        <v>2.032</v>
+      </c>
+      <c r="L75">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M75">
+        <v>5.5249612</v>
+      </c>
+      <c r="N75">
+        <v>-5.2569612</v>
+      </c>
+      <c r="O75">
+        <v>-0.8936834040000001</v>
+      </c>
+      <c r="P75">
+        <v>-4.363277796</v>
+      </c>
+      <c r="Q75">
+        <v>-2.331277796</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1714421087393203</v>
+      </c>
+      <c r="T75">
+        <v>3.43521416820594</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.008246211756202011</v>
+      </c>
+      <c r="W75">
+        <v>0.1821851709003857</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.04850712797765888</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.181028544116898</v>
+      </c>
+      <c r="C76">
+        <v>-13.13127856530667</v>
+      </c>
+      <c r="D76">
+        <v>8.986721434693333</v>
+      </c>
+      <c r="E76">
+        <v>4.088000000000005</v>
+      </c>
+      <c r="F76">
+        <v>30.488</v>
+      </c>
+      <c r="G76">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H76">
+        <v>14.8</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>2.3</v>
+      </c>
+      <c r="K76">
+        <v>2.032</v>
+      </c>
+      <c r="L76">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M76">
+        <v>5.600645600000001</v>
+      </c>
+      <c r="N76">
+        <v>-5.332645600000001</v>
+      </c>
+      <c r="O76">
+        <v>-0.9065497520000002</v>
+      </c>
+      <c r="P76">
+        <v>-4.426095848000001</v>
+      </c>
+      <c r="Q76">
+        <v>-2.394095848000001</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1776783436908327</v>
+      </c>
+      <c r="T76">
+        <v>3.567337790060014</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.00813477646219928</v>
+      </c>
+      <c r="W76">
+        <v>0.182205641563894</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.04785162624823103</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1827725441168981</v>
+      </c>
+      <c r="C77">
+        <v>-13.63362624690603</v>
+      </c>
+      <c r="D77">
+        <v>8.89637375309397</v>
+      </c>
+      <c r="E77">
+        <v>4.500000000000004</v>
+      </c>
+      <c r="F77">
+        <v>30.9</v>
+      </c>
+      <c r="G77">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H77">
+        <v>14.8</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>2.3</v>
+      </c>
+      <c r="K77">
+        <v>2.032</v>
+      </c>
+      <c r="L77">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M77">
+        <v>5.67633</v>
+      </c>
+      <c r="N77">
+        <v>-5.40833</v>
+      </c>
+      <c r="O77">
+        <v>-0.9194161000000001</v>
+      </c>
+      <c r="P77">
+        <v>-4.4889139</v>
+      </c>
+      <c r="Q77">
+        <v>-2.4569139</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.184413477438466</v>
+      </c>
+      <c r="T77">
+        <v>3.710031301662415</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.008026312776036623</v>
+      </c>
+      <c r="W77">
+        <v>0.1822255663430421</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.0472136045649213</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1845165441168981</v>
+      </c>
+      <c r="C78">
+        <v>-14.1341753956385</v>
+      </c>
+      <c r="D78">
+        <v>8.8078246043615</v>
+      </c>
+      <c r="E78">
+        <v>4.912000000000003</v>
+      </c>
+      <c r="F78">
+        <v>31.312</v>
+      </c>
+      <c r="G78">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H78">
+        <v>14.8</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2.3</v>
+      </c>
+      <c r="K78">
+        <v>2.032</v>
+      </c>
+      <c r="L78">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M78">
+        <v>5.7520144</v>
+      </c>
+      <c r="N78">
+        <v>-5.4840144</v>
+      </c>
+      <c r="O78">
+        <v>-0.9322824480000002</v>
+      </c>
+      <c r="P78">
+        <v>-4.551731952</v>
+      </c>
+      <c r="Q78">
+        <v>-2.519731952</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1917098723317354</v>
+      </c>
+      <c r="T78">
+        <v>3.864615939231683</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.007920703397404564</v>
+      </c>
+      <c r="W78">
+        <v>0.1822449667858968</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.04659237292590923</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1862605441168981</v>
+      </c>
+      <c r="C79">
+        <v>-14.63297918676982</v>
+      </c>
+      <c r="D79">
+        <v>8.721020813230187</v>
+      </c>
+      <c r="E79">
+        <v>5.324000000000005</v>
+      </c>
+      <c r="F79">
+        <v>31.724</v>
+      </c>
+      <c r="G79">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H79">
+        <v>14.8</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>2.3</v>
+      </c>
+      <c r="K79">
+        <v>2.032</v>
+      </c>
+      <c r="L79">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M79">
+        <v>5.827698800000001</v>
+      </c>
+      <c r="N79">
+        <v>-5.559698800000001</v>
+      </c>
+      <c r="O79">
+        <v>-0.9451487960000003</v>
+      </c>
+      <c r="P79">
+        <v>-4.614550004000001</v>
+      </c>
+      <c r="Q79">
+        <v>-2.582550004000001</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1996407363461587</v>
+      </c>
+      <c r="T79">
+        <v>4.032642719198278</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.00781783711951619</v>
+      </c>
+      <c r="W79">
+        <v>0.1822638633211449</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.04598727717362461</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1880045441168981</v>
+      </c>
+      <c r="C80">
+        <v>-15.13008871978943</v>
+      </c>
+      <c r="D80">
+        <v>8.63591128021057</v>
+      </c>
+      <c r="E80">
+        <v>5.736000000000004</v>
+      </c>
+      <c r="F80">
+        <v>32.136</v>
+      </c>
+      <c r="G80">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H80">
+        <v>14.8</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>2.3</v>
+      </c>
+      <c r="K80">
+        <v>2.032</v>
+      </c>
+      <c r="L80">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M80">
+        <v>5.9033832</v>
+      </c>
+      <c r="N80">
+        <v>-5.635383200000001</v>
+      </c>
+      <c r="O80">
+        <v>-0.9580151440000002</v>
+      </c>
+      <c r="P80">
+        <v>-4.677368056000001</v>
+      </c>
+      <c r="Q80">
+        <v>-2.645368056000001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2082925879982568</v>
+      </c>
+      <c r="T80">
+        <v>4.215944660980018</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.007717608438496753</v>
+      </c>
+      <c r="W80">
+        <v>0.1822822753298481</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.04539769669703975</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1897485441168981</v>
+      </c>
+      <c r="C81">
+        <v>-15.62555311872041</v>
+      </c>
+      <c r="D81">
+        <v>8.552446881279588</v>
+      </c>
+      <c r="E81">
+        <v>6.148000000000003</v>
+      </c>
+      <c r="F81">
+        <v>32.548</v>
+      </c>
+      <c r="G81">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H81">
+        <v>14.8</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2.3</v>
+      </c>
+      <c r="K81">
+        <v>2.032</v>
+      </c>
+      <c r="L81">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M81">
+        <v>5.9790676</v>
+      </c>
+      <c r="N81">
+        <v>-5.711067600000001</v>
+      </c>
+      <c r="O81">
+        <v>-0.9708814920000002</v>
+      </c>
+      <c r="P81">
+        <v>-4.740186108000001</v>
+      </c>
+      <c r="Q81">
+        <v>-2.708186108</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2177684255219834</v>
+      </c>
+      <c r="T81">
+        <v>4.416703930550495</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.007619917192439832</v>
+      </c>
+      <c r="W81">
+        <v>0.1823002212117488</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.04482304230846956</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1914925441168981</v>
+      </c>
+      <c r="C82">
+        <v>-16.11941962666808</v>
+      </c>
+      <c r="D82">
+        <v>8.470580373331924</v>
+      </c>
+      <c r="E82">
+        <v>6.560000000000002</v>
+      </c>
+      <c r="F82">
+        <v>32.96</v>
+      </c>
+      <c r="G82">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H82">
+        <v>14.8</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>2.3</v>
+      </c>
+      <c r="K82">
+        <v>2.032</v>
+      </c>
+      <c r="L82">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M82">
+        <v>6.054752000000001</v>
+      </c>
+      <c r="N82">
+        <v>-5.786752000000001</v>
+      </c>
+      <c r="O82">
+        <v>-0.9837478400000002</v>
+      </c>
+      <c r="P82">
+        <v>-4.80300416</v>
+      </c>
+      <c r="Q82">
+        <v>-2.77100416</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2281918467980825</v>
+      </c>
+      <c r="T82">
+        <v>4.63753912707802</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.007524668227534334</v>
+      </c>
+      <c r="W82">
+        <v>0.182317718446602</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.04426275427961368</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1932365441168981</v>
+      </c>
+      <c r="C83">
+        <v>-16.61173369498994</v>
+      </c>
+      <c r="D83">
+        <v>8.390266305010064</v>
+      </c>
+      <c r="E83">
+        <v>6.972000000000008</v>
+      </c>
+      <c r="F83">
+        <v>33.37200000000001</v>
+      </c>
+      <c r="G83">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H83">
+        <v>14.8</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>2.3</v>
+      </c>
+      <c r="K83">
+        <v>2.032</v>
+      </c>
+      <c r="L83">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M83">
+        <v>6.130436400000002</v>
+      </c>
+      <c r="N83">
+        <v>-5.862436400000002</v>
+      </c>
+      <c r="O83">
+        <v>-0.9966141880000003</v>
+      </c>
+      <c r="P83">
+        <v>-4.865822212000001</v>
+      </c>
+      <c r="Q83">
+        <v>-2.833822212000001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2397124703137711</v>
+      </c>
+      <c r="T83">
+        <v>4.881620133766337</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.007431771088922797</v>
+      </c>
+      <c r="W83">
+        <v>0.1823347836509649</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.04371630052307529</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1949805441168981</v>
+      </c>
+      <c r="C84">
+        <v>-17.10253906744041</v>
+      </c>
+      <c r="D84">
+        <v>8.3114609325596</v>
+      </c>
+      <c r="E84">
+        <v>7.384000000000007</v>
+      </c>
+      <c r="F84">
+        <v>33.78400000000001</v>
+      </c>
+      <c r="G84">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H84">
+        <v>14.8</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>2.3</v>
+      </c>
+      <c r="K84">
+        <v>2.032</v>
+      </c>
+      <c r="L84">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M84">
+        <v>6.206120800000001</v>
+      </c>
+      <c r="N84">
+        <v>-5.938120800000001</v>
+      </c>
+      <c r="O84">
+        <v>-1.009480536</v>
+      </c>
+      <c r="P84">
+        <v>-4.928640264</v>
+      </c>
+      <c r="Q84">
+        <v>-2.896640264</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2525131631089806</v>
+      </c>
+      <c r="T84">
+        <v>5.152821252308912</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.007341139734179838</v>
+      </c>
+      <c r="W84">
+        <v>0.1823514326308312</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.04318317490694024</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.196724544116898</v>
+      </c>
+      <c r="C85">
+        <v>-17.59187785961772</v>
+      </c>
+      <c r="D85">
+        <v>8.234122140382286</v>
+      </c>
+      <c r="E85">
+        <v>7.796000000000006</v>
+      </c>
+      <c r="F85">
+        <v>34.19600000000001</v>
+      </c>
+      <c r="G85">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H85">
+        <v>14.8</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>2.3</v>
+      </c>
+      <c r="K85">
+        <v>2.032</v>
+      </c>
+      <c r="L85">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M85">
+        <v>6.281805200000001</v>
+      </c>
+      <c r="N85">
+        <v>-6.013805200000001</v>
+      </c>
+      <c r="O85">
+        <v>-1.022346884</v>
+      </c>
+      <c r="P85">
+        <v>-4.991458316000001</v>
+      </c>
+      <c r="Q85">
+        <v>-2.959458316000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2668198197624501</v>
+      </c>
+      <c r="T85">
+        <v>5.455928384797671</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.007252692267502972</v>
+      </c>
+      <c r="W85">
+        <v>0.1823676804304597</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.04266289569119397</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1984685441168981</v>
+      </c>
+      <c r="C86">
+        <v>-18.07979063401615</v>
+      </c>
+      <c r="D86">
+        <v>8.158209365983852</v>
+      </c>
+      <c r="E86">
+        <v>8.208000000000006</v>
+      </c>
+      <c r="F86">
+        <v>34.608</v>
+      </c>
+      <c r="G86">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H86">
+        <v>14.8</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>2.3</v>
+      </c>
+      <c r="K86">
+        <v>2.032</v>
+      </c>
+      <c r="L86">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M86">
+        <v>6.357489600000001</v>
+      </c>
+      <c r="N86">
+        <v>-6.089489600000001</v>
+      </c>
+      <c r="O86">
+        <v>-1.035213232</v>
+      </c>
+      <c r="P86">
+        <v>-5.054276368000001</v>
+      </c>
+      <c r="Q86">
+        <v>-3.022276368000001</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.282914808497603</v>
+      </c>
+      <c r="T86">
+        <v>5.796923908847522</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.007166350692889841</v>
+      </c>
+      <c r="W86">
+        <v>0.1823835413777161</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.04215500407582262</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2002125441168981</v>
+      </c>
+      <c r="C87">
+        <v>-18.56631647096463</v>
+      </c>
+      <c r="D87">
+        <v>8.083683529035371</v>
+      </c>
+      <c r="E87">
+        <v>8.620000000000005</v>
+      </c>
+      <c r="F87">
+        <v>35.02</v>
+      </c>
+      <c r="G87">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H87">
+        <v>14.8</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>2.3</v>
+      </c>
+      <c r="K87">
+        <v>2.032</v>
+      </c>
+      <c r="L87">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M87">
+        <v>6.433174000000001</v>
+      </c>
+      <c r="N87">
+        <v>-6.165174000000001</v>
+      </c>
+      <c r="O87">
+        <v>-1.04807958</v>
+      </c>
+      <c r="P87">
+        <v>-5.117094420000001</v>
+      </c>
+      <c r="Q87">
+        <v>-3.085094420000001</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3011557957307766</v>
+      </c>
+      <c r="T87">
+        <v>6.183385502770691</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.007082040684738197</v>
+      </c>
+      <c r="W87">
+        <v>0.1823990291262136</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.0416590628514012</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.201956544116898</v>
+      </c>
+      <c r="C88">
+        <v>-19.05149303571233</v>
+      </c>
+      <c r="D88">
+        <v>8.010506964287673</v>
+      </c>
+      <c r="E88">
+        <v>9.032000000000004</v>
+      </c>
+      <c r="F88">
+        <v>35.432</v>
+      </c>
+      <c r="G88">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H88">
+        <v>14.8</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>2.3</v>
+      </c>
+      <c r="K88">
+        <v>2.032</v>
+      </c>
+      <c r="L88">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M88">
+        <v>6.5088584</v>
+      </c>
+      <c r="N88">
+        <v>-6.2408584</v>
+      </c>
+      <c r="O88">
+        <v>-1.060945928</v>
+      </c>
+      <c r="P88">
+        <v>-5.179912472</v>
+      </c>
+      <c r="Q88">
+        <v>-3.147912472</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3220026382829749</v>
+      </c>
+      <c r="T88">
+        <v>6.62505589582574</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.006999691374450544</v>
+      </c>
+      <c r="W88">
+        <v>0.1824141566945134</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.04117465514382668</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.203700544116898</v>
+      </c>
+      <c r="C89">
+        <v>-19.53535664190325</v>
+      </c>
+      <c r="D89">
+        <v>7.93864335809675</v>
+      </c>
+      <c r="E89">
+        <v>9.444000000000003</v>
+      </c>
+      <c r="F89">
+        <v>35.844</v>
+      </c>
+      <c r="G89">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H89">
+        <v>14.8</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>2.3</v>
+      </c>
+      <c r="K89">
+        <v>2.032</v>
+      </c>
+      <c r="L89">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M89">
+        <v>6.5845428</v>
+      </c>
+      <c r="N89">
+        <v>-6.316542800000001</v>
+      </c>
+      <c r="O89">
+        <v>-1.073812276</v>
+      </c>
+      <c r="P89">
+        <v>-5.242730524000001</v>
+      </c>
+      <c r="Q89">
+        <v>-3.210730524000001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3460566873816653</v>
+      </c>
+      <c r="T89">
+        <v>7.134675580120028</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.006919235151755711</v>
+      </c>
+      <c r="W89">
+        <v>0.1824289365026225</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.04070138324562178</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.205444544116898</v>
+      </c>
+      <c r="C90">
+        <v>-20.01794231166457</v>
+      </c>
+      <c r="D90">
+        <v>7.86805768833543</v>
+      </c>
+      <c r="E90">
+        <v>9.856000000000002</v>
+      </c>
+      <c r="F90">
+        <v>36.256</v>
+      </c>
+      <c r="G90">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H90">
+        <v>14.8</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>2.3</v>
+      </c>
+      <c r="K90">
+        <v>2.032</v>
+      </c>
+      <c r="L90">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M90">
+        <v>6.6602272</v>
+      </c>
+      <c r="N90">
+        <v>-6.392227200000001</v>
+      </c>
+      <c r="O90">
+        <v>-1.086678624</v>
+      </c>
+      <c r="P90">
+        <v>-5.305548576000001</v>
+      </c>
+      <c r="Q90">
+        <v>-3.273548576</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3741197446634708</v>
+      </c>
+      <c r="T90">
+        <v>7.729231878463366</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.006840607479576668</v>
+      </c>
+      <c r="W90">
+        <v>0.1824433804060017</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.04023886752692152</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2071885441168981</v>
+      </c>
+      <c r="C91">
+        <v>-20.49928383251761</v>
+      </c>
+      <c r="D91">
+        <v>7.798716167482398</v>
+      </c>
+      <c r="E91">
+        <v>10.26800000000001</v>
+      </c>
+      <c r="F91">
+        <v>36.66800000000001</v>
+      </c>
+      <c r="G91">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H91">
+        <v>14.8</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>2.3</v>
+      </c>
+      <c r="K91">
+        <v>2.032</v>
+      </c>
+      <c r="L91">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M91">
+        <v>6.735911600000001</v>
+      </c>
+      <c r="N91">
+        <v>-6.467911600000002</v>
+      </c>
+      <c r="O91">
+        <v>-1.099544972</v>
+      </c>
+      <c r="P91">
+        <v>-5.368366628000001</v>
+      </c>
+      <c r="Q91">
+        <v>-3.336366628000001</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4072851759965136</v>
+      </c>
+      <c r="T91">
+        <v>8.431889321960035</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.006763746721379175</v>
+      </c>
+      <c r="W91">
+        <v>0.1824574997272826</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.03978674541987748</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.208932544116898</v>
+      </c>
+      <c r="C92">
+        <v>-20.97941381130565</v>
+      </c>
+      <c r="D92">
+        <v>7.73058618869435</v>
+      </c>
+      <c r="E92">
+        <v>10.68000000000001</v>
+      </c>
+      <c r="F92">
+        <v>37.08000000000001</v>
+      </c>
+      <c r="G92">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H92">
+        <v>14.8</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>2.3</v>
+      </c>
+      <c r="K92">
+        <v>2.032</v>
+      </c>
+      <c r="L92">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M92">
+        <v>6.811596000000001</v>
+      </c>
+      <c r="N92">
+        <v>-6.543596000000001</v>
+      </c>
+      <c r="O92">
+        <v>-1.11241132</v>
+      </c>
+      <c r="P92">
+        <v>-5.43118468</v>
+      </c>
+      <c r="Q92">
+        <v>-3.39918468</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.447083693596165</v>
+      </c>
+      <c r="T92">
+        <v>9.275078254156039</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.006688593980030519</v>
+      </c>
+      <c r="W92">
+        <v>0.1824713052858684</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.03934467047076773</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.210676544116898</v>
+      </c>
+      <c r="C93">
+        <v>-21.45836372531976</v>
+      </c>
+      <c r="D93">
+        <v>7.66363627468025</v>
+      </c>
+      <c r="E93">
+        <v>11.09200000000001</v>
+      </c>
+      <c r="F93">
+        <v>37.492</v>
+      </c>
+      <c r="G93">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H93">
+        <v>14.8</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>2.3</v>
+      </c>
+      <c r="K93">
+        <v>2.032</v>
+      </c>
+      <c r="L93">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M93">
+        <v>6.887280400000001</v>
+      </c>
+      <c r="N93">
+        <v>-6.619280400000001</v>
+      </c>
+      <c r="O93">
+        <v>-1.125277668</v>
+      </c>
+      <c r="P93">
+        <v>-5.494002732</v>
+      </c>
+      <c r="Q93">
+        <v>-3.462002732</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4957263262179613</v>
+      </c>
+      <c r="T93">
+        <v>10.30564250461782</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.006615092947282931</v>
+      </c>
+      <c r="W93">
+        <v>0.1824848074255841</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.0389123114546055</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.212420544116898</v>
+      </c>
+      <c r="C94">
+        <v>-21.9361639707905</v>
+      </c>
+      <c r="D94">
+        <v>7.597836029209507</v>
+      </c>
+      <c r="E94">
+        <v>11.504</v>
+      </c>
+      <c r="F94">
+        <v>37.904</v>
+      </c>
+      <c r="G94">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H94">
+        <v>14.8</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>2.3</v>
+      </c>
+      <c r="K94">
+        <v>2.032</v>
+      </c>
+      <c r="L94">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M94">
+        <v>6.962964800000001</v>
+      </c>
+      <c r="N94">
+        <v>-6.694964800000001</v>
+      </c>
+      <c r="O94">
+        <v>-1.138144016</v>
+      </c>
+      <c r="P94">
+        <v>-5.556820784000001</v>
+      </c>
+      <c r="Q94">
+        <v>-3.524820784000001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5565296169952064</v>
+      </c>
+      <c r="T94">
+        <v>11.59384781769505</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.006543189763073334</v>
+      </c>
+      <c r="W94">
+        <v>0.1824980160405234</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.03848935154749022</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2141645441168981</v>
+      </c>
+      <c r="C95">
+        <v>-22.41284390890307</v>
+      </c>
+      <c r="D95">
+        <v>7.533156091096935</v>
+      </c>
+      <c r="E95">
+        <v>11.916</v>
+      </c>
+      <c r="F95">
+        <v>38.316</v>
+      </c>
+      <c r="G95">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H95">
+        <v>14.8</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>2.3</v>
+      </c>
+      <c r="K95">
+        <v>2.032</v>
+      </c>
+      <c r="L95">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M95">
+        <v>7.038649200000001</v>
+      </c>
+      <c r="N95">
+        <v>-6.770649200000001</v>
+      </c>
+      <c r="O95">
+        <v>-1.151010364</v>
+      </c>
+      <c r="P95">
+        <v>-5.619638836000001</v>
+      </c>
+      <c r="Q95">
+        <v>-3.587638836000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6347052765659503</v>
+      </c>
+      <c r="T95">
+        <v>13.25011179165149</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.006472832883900503</v>
+      </c>
+      <c r="W95">
+        <v>0.1825109405992275</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.0380754875523559</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2159085441168981</v>
+      </c>
+      <c r="C96">
+        <v>-22.88843190948178</v>
+      </c>
+      <c r="D96">
+        <v>7.469568090518219</v>
+      </c>
+      <c r="E96">
+        <v>12.328</v>
+      </c>
+      <c r="F96">
+        <v>38.728</v>
+      </c>
+      <c r="G96">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H96">
+        <v>14.8</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>2.3</v>
+      </c>
+      <c r="K96">
+        <v>2.032</v>
+      </c>
+      <c r="L96">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M96">
+        <v>7.1143336</v>
+      </c>
+      <c r="N96">
+        <v>-6.8463336</v>
+      </c>
+      <c r="O96">
+        <v>-1.163876712</v>
+      </c>
+      <c r="P96">
+        <v>-5.682456888</v>
+      </c>
+      <c r="Q96">
+        <v>-3.650456888</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7389394893269422</v>
+      </c>
+      <c r="T96">
+        <v>15.45846375692674</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.00640397295960369</v>
+      </c>
+      <c r="W96">
+        <v>0.1825235901673208</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.03767042917413932</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2176525441168981</v>
+      </c>
+      <c r="C97">
+        <v>-23.36295539248066</v>
+      </c>
+      <c r="D97">
+        <v>7.40704460751935</v>
+      </c>
+      <c r="E97">
+        <v>12.74000000000001</v>
+      </c>
+      <c r="F97">
+        <v>39.14000000000001</v>
+      </c>
+      <c r="G97">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H97">
+        <v>14.8</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>2.3</v>
+      </c>
+      <c r="K97">
+        <v>2.032</v>
+      </c>
+      <c r="L97">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M97">
+        <v>7.190018000000001</v>
+      </c>
+      <c r="N97">
+        <v>-6.922018000000001</v>
+      </c>
+      <c r="O97">
+        <v>-1.17674306</v>
+      </c>
+      <c r="P97">
+        <v>-5.745274940000001</v>
+      </c>
+      <c r="Q97">
+        <v>-3.713274940000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.8848673871923313</v>
+      </c>
+      <c r="T97">
+        <v>18.5501565083121</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.00633656271792365</v>
+      </c>
+      <c r="W97">
+        <v>0.1825359734287174</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.03727389834072736</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.219396544116898</v>
+      </c>
+      <c r="C98">
+        <v>-23.83644086740748</v>
+      </c>
+      <c r="D98">
+        <v>7.345559132592518</v>
+      </c>
+      <c r="E98">
+        <v>13.152</v>
+      </c>
+      <c r="F98">
+        <v>39.552</v>
+      </c>
+      <c r="G98">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H98">
+        <v>14.8</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>2.3</v>
+      </c>
+      <c r="K98">
+        <v>2.032</v>
+      </c>
+      <c r="L98">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M98">
+        <v>7.2657024</v>
+      </c>
+      <c r="N98">
+        <v>-6.997702400000001</v>
+      </c>
+      <c r="O98">
+        <v>-1.189609408</v>
+      </c>
+      <c r="P98">
+        <v>-5.808092992000001</v>
+      </c>
+      <c r="Q98">
+        <v>-3.776092992000001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.103759233990412</v>
+      </c>
+      <c r="T98">
+        <v>23.18769563539007</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.006270556856278612</v>
+      </c>
+      <c r="W98">
+        <v>0.1825480987055016</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.03688562856634481</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2211405441168981</v>
+      </c>
+      <c r="C99">
+        <v>-24.30891397080063</v>
+      </c>
+      <c r="D99">
+        <v>7.285086029199369</v>
+      </c>
+      <c r="E99">
+        <v>13.564</v>
+      </c>
+      <c r="F99">
+        <v>39.964</v>
+      </c>
+      <c r="G99">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H99">
+        <v>14.8</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>2.3</v>
+      </c>
+      <c r="K99">
+        <v>2.032</v>
+      </c>
+      <c r="L99">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M99">
+        <v>7.3413868</v>
+      </c>
+      <c r="N99">
+        <v>-7.0733868</v>
+      </c>
+      <c r="O99">
+        <v>-1.202475756</v>
+      </c>
+      <c r="P99">
+        <v>-5.870911044</v>
+      </c>
+      <c r="Q99">
+        <v>-3.838911044</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.468578978653882</v>
+      </c>
+      <c r="T99">
+        <v>30.91692751385343</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.006205911940234504</v>
+      </c>
+      <c r="W99">
+        <v>0.1825599739765789</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.03650536435432061</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2228845441168981</v>
+      </c>
+      <c r="C100">
+        <v>-24.78039950186963</v>
+      </c>
+      <c r="D100">
+        <v>7.225600498130373</v>
+      </c>
+      <c r="E100">
+        <v>13.97600000000001</v>
+      </c>
+      <c r="F100">
+        <v>40.376</v>
+      </c>
+      <c r="G100">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H100">
+        <v>14.8</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>2.3</v>
+      </c>
+      <c r="K100">
+        <v>2.032</v>
+      </c>
+      <c r="L100">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M100">
+        <v>7.417071200000001</v>
+      </c>
+      <c r="N100">
+        <v>-7.149071200000001</v>
+      </c>
+      <c r="O100">
+        <v>-1.215342104</v>
+      </c>
+      <c r="P100">
+        <v>-5.933729096</v>
+      </c>
+      <c r="Q100">
+        <v>-3.901729096</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.198218467980823</v>
+      </c>
+      <c r="T100">
+        <v>46.37539127078015</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.006142586308191294</v>
+      </c>
+      <c r="W100">
+        <v>0.1825716068951853</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.03613286063641941</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2246285441168981</v>
+      </c>
+      <c r="C101">
+        <v>-25.2509214564039</v>
+      </c>
+      <c r="D101">
+        <v>7.167078543596105</v>
+      </c>
+      <c r="E101">
+        <v>14.38800000000001</v>
+      </c>
+      <c r="F101">
+        <v>40.788</v>
+      </c>
+      <c r="G101">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="H101">
+        <v>14.8</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>2.3</v>
+      </c>
+      <c r="K101">
+        <v>2.032</v>
+      </c>
+      <c r="L101">
+        <v>0.2679999999999998</v>
+      </c>
+      <c r="M101">
+        <v>7.492755600000001</v>
+      </c>
+      <c r="N101">
+        <v>-7.224755600000001</v>
+      </c>
+      <c r="O101">
+        <v>-1.228208452</v>
+      </c>
+      <c r="P101">
+        <v>-5.996547148</v>
+      </c>
+      <c r="Q101">
+        <v>-3.964547148</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.387136935961646</v>
+      </c>
+      <c r="T101">
+        <v>92.75078254156031</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.006080539981845927</v>
+      </c>
+      <c r="W101">
+        <v>0.1825830048053349</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.03576788224615246</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
